--- a/utils/recordingExcel/ZYY_RNP_TBOffset_Recording.xlsx
+++ b/utils/recordingExcel/ZYY_RNP_TBOffset_Recording.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA025BAB-81DE-4430-A7D3-DD82E8146D96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5CAF47-7764-4E04-851C-B3EDCE866143}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全部" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="888">
   <si>
     <t>RNP_Noise</t>
   </si>
@@ -1827,6 +1827,955 @@
   <si>
     <t>6.3，-0.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219\Record Node 105\experiment1\recording1\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-1</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-2</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219\Record Node 105\experiment1\recording2\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-3</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (1)\Record Node 105\experiment1\recording1\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>CF做不出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑内存爆了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (1)\Record Node 105\experiment1\recording2\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-4</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-5</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (1)\Record Node 105\experiment1\recording3\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-7</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (1)\Record Node 105\experiment1\recording6\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (2)\Record Node 105\experiment1\recording1\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-9</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (3)\Record Node 105\experiment1\recording1\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-12</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (3)\Record Node 105\experiment1\recording2\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-13</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (3)\Record Node 105\experiment1\recording3\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-14</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (3)\Record Node 105\experiment1\recording4\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>ap, ud,左下钉子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5, 2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (3)\Record Node 105\experiment2\recording1\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>AutoResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-15</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (3)\Record Node 105\experiment2\recording2\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-16</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (3)\Record Node 105\experiment2\recording3\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (3)\Record Node 105\experiment2\recording4\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-17</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-18</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (3)\Record Node 105\experiment2\recording5\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (3)\Record Node 105\experiment2\recording6\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-19</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-20</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (3)\Record Node 105\experiment2\recording7\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (4)\Record Node 105\experiment1\recording2\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-23</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-24</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (4)\Record Node 105\experiment1\recording3\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (4)\Record Node 105\experiment1\recording4\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-25</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (4)\Record Node 105\experiment1\recording5\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-26</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\TDTTank\Rat4_ZYY\Rat4ZYY20231219\Block-27</t>
+  </si>
+  <si>
+    <t>M:\neuropixels\openEphys\Ratzyy4_20231219 (4)\Record Node 105\experiment1\recording6\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>3.9, 2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy4_20231220_1\Record Node 105\experiment1\recording1\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat4ZYY2023122002\Block-1</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat4ZYY2023122002\Block-2</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy4_20231220_2\Record Node 105\experiment1\recording1\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy4_20231220_2\Record Node 105\experiment1\recording2\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat4ZYY2023122002\Block-4</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy4_20231220_2\Record Node 105\experiment1\recording3\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy4_20231220_2\Record Node 105\experiment1\recording4\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat4ZYY2023122002\Block-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231220\Record Node 105\experiment1\recording1\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231220\Record Node 105\experiment1\recording2\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231220\Block-1</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231220\Record Node 105\experiment1\recording3\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231220\Block-2</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231220\Record Node 105\experiment1\recording4\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231220\Block-3</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231220\Record Node 105\experiment1\recording5\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231220\Block-4</t>
+  </si>
+  <si>
+    <t>猜的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5, 2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231220\Block-5</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231220\Record Node 105\experiment1\recording6\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231220\Block-6</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231220\Record Node 105\experiment1\recording7\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231220\Block-7</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231220\Record Node 105\experiment1\recording8\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231220\Block-8</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231220\Record Node 105\experiment1\recording9\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231220\Block-9</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231220\Record Node 105\experiment1\recording10\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231220\Block-10</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231220\Record Node 105\experiment1\recording11\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231220\Block-11</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231220\Record Node 105\experiment1\recording12\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231220\Block-12</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231220\Record Node 105\experiment1\recording13\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>5.1,  2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marker: 3.5, 12.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment1\recording1\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>5.4,19.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9, 7.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>估计得+0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231223\Block-1</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment1\recording2\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231223\Block-2</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment1\recording3\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231223\Block-3</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment1\recording4\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231223\Block-4</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment1\recording5\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231223\Block-5</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment1\recording6\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231223\Block-6</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment1\recording7\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231223\Block-7</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment1\recording8\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment1\recording9\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231223\Block-8</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231223\Block-9</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment1\recording10\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>2.2，7.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment1\recording11\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231223\Block-10</t>
+  </si>
+  <si>
+    <t>IC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment2\recording1\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231223\Block-11</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment2\recording2\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231223\Block-12</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment2\recording3\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231223\Block-13</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment2\recording4\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231223\Block-14</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231223\Block-15</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231223\Block-16</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231223\Block-17</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231223\Block-18</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231223\Block-19</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231223\Block-20</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment2\recording5\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment2\recording6\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment2\recording7\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment2\recording8\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment2\recording9\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment2\recording10\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231223\Record Node 105\experiment2\recording11\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>marker: 3.3, 12.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6, 7.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224\Record Node 105\experiment1\recording1\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>IC3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231224\Block-1</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224\Record Node 105\experiment1\recording2\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231224\Block-2</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224\Record Node 105\experiment1\recording3\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231224\Block-3</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224\Record Node 105\experiment1\recording4\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231224\Block-4</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224\Record Node 105\experiment1\recording5\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231224\Block-5</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224\Record Node 105\experiment1\recording6\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231224\Block-6</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224\Record Node 105\experiment1\recording7\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224\Record Node 105\experiment1\recording8\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231224\Block-7</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231224\Block-8</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224\Record Node 105\experiment1\recording9\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231224\Block-9</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231224\Block-10</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224\Record Node 105\experiment1\recording10\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224\Record Node 105\experiment1\recording11\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224 (1)\Record Node 105\experiment1\recording1\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231224\Block-11</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231224\Block-12</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224 (1)\Record Node 105\experiment1\recording2\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224 (1)\Record Node 105\experiment1\recording3\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224 (1)\Record Node 105\experiment1\recording4\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231224\Block-13</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224 (1)\Record Node 105\experiment1\recording5\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231224\Block-14</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224 (1)\Record Node 105\experiment1\recording7\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224 (1)\Record Node 105\experiment1\recording6\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231224\Block-15</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231224\Block-16</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224 (1)\Record Node 105\experiment1\recording9\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231224\Block-17</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231224\Block-18</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224 (1)\Record Node 105\experiment1\recording8\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231224\Block-19</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231224\Block-20</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224 (1)\Record Node 105\experiment1\recording10\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231224 (1)\Record Node 105\experiment1\recording11\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>2.4, 8.5?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marker: 2.4, 11.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1, 4.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment1\recording2\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231225\Block-1</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment1\recording3\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment1\recording4\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231225\Block-2</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231225\Block-3</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment1\recording5\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment1\recording6\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231225\Block-4</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment1\recording7\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231225\Block-5</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231225\Block-6</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment1\recording8\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231225\Block-7</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment1\recording9\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment1\recording10\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231225\Block-8</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment1\recording11\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231225\Block-9</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment1\recording12\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231225\Block-10</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment2\recording1\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>新电极，27-57通道坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦边，就十几道有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度1mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment2\recording2\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231225\Block-11</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231225\Block-12</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment2\recording3\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231225\Block-13</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment2\recording5\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231225\Block-14</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231225\Block-15</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment2\recording6\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment2\recording7\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment2\recording8\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231225\Block-16</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231225\Block-17</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment2\recording9\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231225\Block-18</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment2\recording10\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment2\recording11\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231225\Block-19</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231225\Block-20</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231225\Record Node 105\experiment2\recording12\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>marker: 5.9, 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6,5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1,5.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226\Record Node 105\experiment1\recording1\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231226\Block-1</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226\Record Node 105\experiment1\recording2\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226\Record Node 105\experiment1\recording3\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226\Record Node 105\experiment1\recording4\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231226\Block-2</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231226\Block-3</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231226\Block-4</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226\Record Node 105\experiment1\recording5\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231226\Block-5</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226\Record Node 105\experiment1\recording6\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231226\Block-6</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226\Record Node 105\experiment1\recording7\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226\Record Node 105\experiment1\recording8\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231226\Block-7</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231226\Block-8</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226\Record Node 105\experiment1\recording9\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231226\Block-9</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226\Record Node 105\experiment1\recording10\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231226\Block-10</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226\Record Node 105\experiment1\recording11\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>3.1,5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度&lt;1mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226 (1)\Record Node 105\experiment1\recording1\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226 (1)\Record Node 105\experiment1\recording2\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226 (1)\Record Node 105\experiment1\recording3\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231226\Block-11</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231226\Block-12</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226 (1)\Record Node 105\experiment1\recording4\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231226\Block-13</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226 (1)\Record Node 105\experiment1\recording5\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231226\Block-14</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231226\Block-15</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226 (1)\Record Node 105\experiment1\recording6\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231226\Block-16</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226 (1)\Record Node 105\experiment1\recording7\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231226\Block-17</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231226\Block-18</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226 (1)\Record Node 105\experiment1\recording8\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231226\Block-19</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231226\Block-20</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226 (1)\Record Node 105\experiment1\recording9\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226 (1)\Record Node 105\experiment1\recording10\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231226 (1)\Record Node 105\experiment1\recording11\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>marker: 5.9, 7.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4, 5.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>染色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGB5</t>
+  </si>
+  <si>
+    <t>MGB5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231227\Record Node 105\experiment1\recording1\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>&gt;1mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231227\Record Node 105\experiment1\recording2\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231227\Record Node 105\experiment1\recording3\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231227\Block-1</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231227\Block-2</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231227\Block-3</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231227\Record Node 105\experiment1\recording4\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231227\Record Node 105\experiment1\recording5\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231227\Block-4</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231227\Record Node 105\experiment1\recording6\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231227\Block-5</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231227\Block-6</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231227\Record Node 105\experiment1\recording7\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231227\Block-7</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231227\Record Node 105\experiment1\recording8\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231227\Record Node 105\experiment1\recording9\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231227\Block-8</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231227\Record Node 105\experiment1\recording10\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231227\Block-9</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\TDTTank\Rat4ZYY20231227\Block-10</t>
+  </si>
+  <si>
+    <t>F:\neuropixels\openEphys\Ratzyy4_20231227\Record Node 105\experiment1\recording11\continuous\Neuropix-PXI-118.ProbeA-AP</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +2964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2070,6 +3019,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2350,35 +3305,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B1BE7F-73A6-48FB-BA45-796FFEBC3683}">
-  <dimension ref="A1:U245"/>
+  <dimension ref="A1:U385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B231" sqref="B231"/>
+    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
+      <selection activeCell="C385" sqref="C385"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="115" customWidth="1"/>
-    <col min="5" max="6" width="6.88671875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" customWidth="1"/>
-    <col min="8" max="9" width="6.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="5" max="6" width="6.875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="6.75" customWidth="1"/>
+    <col min="8" max="9" width="6.875" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="6.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="5.625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="6.875" customWidth="1"/>
     <col min="17" max="17" width="8" style="6" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="9.77734375" customWidth="1"/>
-    <col min="20" max="20" width="34.88671875" customWidth="1"/>
+    <col min="18" max="18" width="5.625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="9.75" customWidth="1"/>
+    <col min="20" max="20" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2437,7 +3392,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2496,7 +3451,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -2541,7 +3496,7 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
     </row>
-    <row r="4" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -2586,7 +3541,7 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -2631,7 +3586,7 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -2676,7 +3631,7 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -2721,7 +3676,7 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
     </row>
-    <row r="8" spans="1:19" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
         <v>1</v>
       </c>
@@ -2766,7 +3721,7 @@
       <c r="Q8" s="33"/>
       <c r="R8" s="33"/>
     </row>
-    <row r="9" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -2811,7 +3766,7 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
     </row>
-    <row r="10" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>1</v>
       </c>
@@ -2856,7 +3811,7 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>1</v>
       </c>
@@ -2901,7 +3856,7 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
     </row>
-    <row r="12" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>1</v>
       </c>
@@ -2946,7 +3901,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
     </row>
-    <row r="13" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>1</v>
       </c>
@@ -2991,7 +3946,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
     </row>
-    <row r="14" spans="1:19" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31">
         <v>1</v>
       </c>
@@ -3036,7 +3991,7 @@
       <c r="Q14" s="33"/>
       <c r="R14" s="33"/>
     </row>
-    <row r="15" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24">
         <v>1</v>
       </c>
@@ -3081,7 +4036,7 @@
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="36">
         <v>2</v>
       </c>
@@ -3122,7 +4077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="36">
         <v>2</v>
       </c>
@@ -3163,7 +4118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="36">
         <v>2</v>
       </c>
@@ -3204,7 +4159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="36">
         <v>2</v>
       </c>
@@ -3245,7 +4200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="36">
         <v>2</v>
       </c>
@@ -3286,7 +4241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="36">
         <v>2</v>
       </c>
@@ -3327,7 +4282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="36">
         <v>2</v>
       </c>
@@ -3368,7 +4323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="36">
         <v>2</v>
       </c>
@@ -3409,7 +4364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="36">
         <v>2</v>
       </c>
@@ -3450,7 +4405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="36">
         <v>2</v>
       </c>
@@ -3491,7 +4446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27">
         <v>2</v>
       </c>
@@ -3536,7 +4491,7 @@
       <c r="Q26" s="25"/>
       <c r="R26" s="25"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="39">
         <v>3</v>
       </c>
@@ -3580,7 +4535,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="39">
         <v>3</v>
       </c>
@@ -3621,7 +4576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="39">
         <v>3</v>
       </c>
@@ -3662,7 +4617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="39">
         <v>3</v>
       </c>
@@ -3706,7 +4661,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="39">
         <v>3</v>
       </c>
@@ -3747,7 +4702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="39">
         <v>3</v>
       </c>
@@ -3788,7 +4743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="39">
         <v>3</v>
       </c>
@@ -3829,7 +4784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="39">
         <v>3</v>
       </c>
@@ -3870,7 +4825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27">
         <v>3</v>
       </c>
@@ -3915,7 +4870,7 @@
       <c r="Q35" s="25"/>
       <c r="R35" s="25"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="39">
         <v>4</v>
       </c>
@@ -3959,7 +4914,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="39">
         <v>4</v>
       </c>
@@ -4000,7 +4955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="39">
         <v>4</v>
       </c>
@@ -4044,7 +4999,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="39">
         <v>4</v>
       </c>
@@ -4085,7 +5040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="39">
         <v>4</v>
       </c>
@@ -4129,7 +5084,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="39">
         <v>4</v>
       </c>
@@ -4170,7 +5125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="44">
         <v>4</v>
       </c>
@@ -4215,7 +5170,7 @@
       <c r="Q42" s="45"/>
       <c r="R42" s="45"/>
     </row>
-    <row r="43" spans="1:21" s="48" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" s="48" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47">
         <v>4</v>
       </c>
@@ -4260,7 +5215,7 @@
       <c r="Q43" s="51"/>
       <c r="R43" s="51"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="41">
         <v>10</v>
       </c>
@@ -4301,7 +5256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="41">
         <v>10</v>
       </c>
@@ -4342,7 +5297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="44">
         <v>10</v>
       </c>
@@ -4389,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="44">
         <v>10</v>
       </c>
@@ -4430,7 +5385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="44">
         <v>11</v>
       </c>
@@ -4471,7 +5426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="44">
         <v>11</v>
       </c>
@@ -4512,7 +5467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="44">
         <v>11</v>
       </c>
@@ -4553,7 +5508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="44">
         <v>11</v>
       </c>
@@ -4594,7 +5549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="44">
         <v>12</v>
       </c>
@@ -4635,7 +5590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="44">
         <v>12</v>
       </c>
@@ -4676,7 +5631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="44">
         <v>12</v>
       </c>
@@ -4717,7 +5672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="44">
         <v>12</v>
       </c>
@@ -4758,7 +5713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="44">
         <v>12</v>
       </c>
@@ -4799,7 +5754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="44">
         <v>12</v>
       </c>
@@ -4840,7 +5795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="24">
         <v>12</v>
       </c>
@@ -4885,7 +5840,7 @@
       <c r="Q58" s="25"/>
       <c r="R58" s="25"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="44">
         <v>13</v>
       </c>
@@ -4926,7 +5881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="44">
         <v>13</v>
       </c>
@@ -4967,7 +5922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="44">
         <v>13</v>
       </c>
@@ -5014,7 +5969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="44">
         <v>13</v>
       </c>
@@ -5055,7 +6010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="44">
         <v>14</v>
       </c>
@@ -5096,7 +6051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="44">
         <v>14</v>
       </c>
@@ -5137,7 +6092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="44">
         <v>14</v>
       </c>
@@ -5178,7 +6133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="44">
         <v>14</v>
       </c>
@@ -5219,7 +6174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="44">
         <v>15</v>
       </c>
@@ -5260,7 +6215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="44">
         <v>15</v>
       </c>
@@ -5301,7 +6256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="44">
         <v>15</v>
       </c>
@@ -5342,7 +6297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="44">
         <v>15</v>
       </c>
@@ -5383,7 +6338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="24">
         <v>15</v>
       </c>
@@ -5428,7 +6383,7 @@
       <c r="Q71" s="25"/>
       <c r="R71" s="25"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="44">
         <v>16</v>
       </c>
@@ -5469,7 +6424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="44">
         <v>16</v>
       </c>
@@ -5510,7 +6465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="44">
         <v>16</v>
       </c>
@@ -5560,7 +6515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="44">
         <v>16</v>
       </c>
@@ -5601,7 +6556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="44">
         <v>17</v>
       </c>
@@ -5642,7 +6597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="44">
         <v>17</v>
       </c>
@@ -5683,7 +6638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="44">
         <v>17</v>
       </c>
@@ -5724,7 +6679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="44">
         <v>17</v>
       </c>
@@ -5765,7 +6720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="44">
         <v>18</v>
       </c>
@@ -5806,7 +6761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="44">
         <v>18</v>
       </c>
@@ -5847,7 +6802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="44">
         <v>18</v>
       </c>
@@ -5888,7 +6843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="44">
         <v>18</v>
       </c>
@@ -5929,7 +6884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="24">
         <v>18</v>
       </c>
@@ -5974,7 +6929,7 @@
       <c r="Q84" s="25"/>
       <c r="R84" s="25"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="44">
         <v>19</v>
       </c>
@@ -6015,7 +6970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="44">
         <v>19</v>
       </c>
@@ -6056,7 +7011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="44">
         <v>19</v>
       </c>
@@ -6103,7 +7058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="44">
         <v>19</v>
       </c>
@@ -6144,7 +7099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="44">
         <v>20</v>
       </c>
@@ -6185,7 +7140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="44">
         <v>20</v>
       </c>
@@ -6226,7 +7181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="44">
         <v>20</v>
       </c>
@@ -6267,7 +7222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="44">
         <v>20</v>
       </c>
@@ -6308,7 +7263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="44">
         <v>21</v>
       </c>
@@ -6349,7 +7304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="44">
         <v>21</v>
       </c>
@@ -6390,7 +7345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="44">
         <v>21</v>
       </c>
@@ -6431,7 +7386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="44">
         <v>21</v>
       </c>
@@ -6472,7 +7427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="42">
         <v>21</v>
       </c>
@@ -6517,7 +7472,7 @@
       <c r="Q97" s="45"/>
       <c r="R97" s="45"/>
     </row>
-    <row r="98" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="17">
         <v>22</v>
       </c>
@@ -6562,7 +7517,7 @@
       <c r="Q98" s="22"/>
       <c r="R98" s="22"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="44">
         <v>22</v>
       </c>
@@ -6603,7 +7558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="44">
         <v>22</v>
       </c>
@@ -6644,7 +7599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="44">
         <v>23</v>
       </c>
@@ -6685,7 +7640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="44">
         <v>23</v>
       </c>
@@ -6726,7 +7681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="44">
         <v>23</v>
       </c>
@@ -6767,7 +7722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="44">
         <v>24</v>
       </c>
@@ -6808,7 +7763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="44">
         <v>24</v>
       </c>
@@ -6849,7 +7804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="44">
         <v>24</v>
       </c>
@@ -6890,7 +7845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="42">
         <v>24</v>
       </c>
@@ -6935,7 +7890,7 @@
       <c r="Q107" s="45"/>
       <c r="R107" s="45"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="44">
         <v>24</v>
       </c>
@@ -6976,7 +7931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="24">
         <v>24</v>
       </c>
@@ -7021,7 +7976,7 @@
       <c r="Q109" s="25"/>
       <c r="R109" s="25"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="44">
         <v>25</v>
       </c>
@@ -7062,7 +8017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="44">
         <v>25</v>
       </c>
@@ -7103,7 +8058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="44">
         <v>25</v>
       </c>
@@ -7144,7 +8099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="44">
         <v>26</v>
       </c>
@@ -7185,7 +8140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="44">
         <v>26</v>
       </c>
@@ -7226,7 +8181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="44">
         <v>26</v>
       </c>
@@ -7267,7 +8222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="44">
         <v>27</v>
       </c>
@@ -7308,7 +8263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="44">
         <v>27</v>
       </c>
@@ -7349,7 +8304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="44">
         <v>27</v>
       </c>
@@ -7390,7 +8345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="44">
         <v>27</v>
       </c>
@@ -7431,7 +8386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="44">
         <v>27</v>
       </c>
@@ -7472,7 +8427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="27">
         <v>27</v>
       </c>
@@ -7517,7 +8472,7 @@
       <c r="Q121" s="25"/>
       <c r="R121" s="25"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="44">
         <v>28</v>
       </c>
@@ -7558,7 +8513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="44">
         <v>28</v>
       </c>
@@ -7599,7 +8554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="44">
         <v>28</v>
       </c>
@@ -7640,7 +8595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="44">
         <v>29</v>
       </c>
@@ -7681,7 +8636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="44">
         <v>29</v>
       </c>
@@ -7722,7 +8677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="44">
         <v>29</v>
       </c>
@@ -7763,7 +8718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="44">
         <v>30</v>
       </c>
@@ -7804,7 +8759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" s="44">
         <v>30</v>
       </c>
@@ -7845,7 +8800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" s="44">
         <v>30</v>
       </c>
@@ -7886,7 +8841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" s="44">
         <v>30</v>
       </c>
@@ -7927,7 +8882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" s="44">
         <v>30</v>
       </c>
@@ -7968,7 +8923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="27">
         <v>30</v>
       </c>
@@ -8013,7 +8968,7 @@
       <c r="Q133" s="25"/>
       <c r="R133" s="25"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" s="44">
         <v>31</v>
       </c>
@@ -8054,7 +9009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" s="44">
         <v>31</v>
       </c>
@@ -8095,7 +9050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" s="44">
         <v>31</v>
       </c>
@@ -8136,7 +9091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" s="44">
         <v>32</v>
       </c>
@@ -8177,7 +9132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" s="44">
         <v>32</v>
       </c>
@@ -8218,7 +9173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" s="44">
         <v>32</v>
       </c>
@@ -8259,7 +9214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" s="44">
         <v>33</v>
       </c>
@@ -8300,7 +9255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" s="44">
         <v>33</v>
       </c>
@@ -8341,7 +9296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" s="44">
         <v>33</v>
       </c>
@@ -8382,7 +9337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" s="44">
         <v>33</v>
       </c>
@@ -8423,7 +9378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" s="44">
         <v>33</v>
       </c>
@@ -8464,7 +9419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="24">
         <v>33</v>
       </c>
@@ -8509,7 +9464,7 @@
       <c r="Q145" s="25"/>
       <c r="R145" s="25"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="44">
         <v>34</v>
       </c>
@@ -8553,7 +9508,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="44">
         <v>34</v>
       </c>
@@ -8594,7 +9549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="44">
         <v>34</v>
       </c>
@@ -8635,7 +9590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="44">
         <v>35</v>
       </c>
@@ -8676,7 +9631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="44">
         <v>35</v>
       </c>
@@ -8717,7 +9672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="44">
         <v>35</v>
       </c>
@@ -8758,7 +9713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="44">
         <v>36</v>
       </c>
@@ -8799,7 +9754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="44">
         <v>36</v>
       </c>
@@ -8840,7 +9795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="44">
         <v>36</v>
       </c>
@@ -8881,7 +9836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="44">
         <v>36</v>
       </c>
@@ -8922,7 +9877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="44">
         <v>36</v>
       </c>
@@ -8963,7 +9918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="27">
         <v>36</v>
       </c>
@@ -9008,7 +9963,7 @@
       <c r="Q157" s="25"/>
       <c r="R157" s="25"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="44">
         <v>37</v>
       </c>
@@ -9049,7 +10004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="44">
         <v>37</v>
       </c>
@@ -9090,7 +10045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="44">
         <v>37</v>
       </c>
@@ -9131,7 +10086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="44">
         <v>38</v>
       </c>
@@ -9172,7 +10127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="44">
         <v>38</v>
       </c>
@@ -9213,7 +10168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="44">
         <v>38</v>
       </c>
@@ -9254,7 +10209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="44">
         <v>39</v>
       </c>
@@ -9295,7 +10250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="44">
         <v>39</v>
       </c>
@@ -9336,7 +10291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="44">
         <v>39</v>
       </c>
@@ -9377,7 +10332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="44">
         <v>39</v>
       </c>
@@ -9418,7 +10373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="44">
         <v>39</v>
       </c>
@@ -9459,7 +10414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="27">
         <v>39</v>
       </c>
@@ -9504,7 +10459,7 @@
       <c r="Q169" s="25"/>
       <c r="R169" s="25"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="44">
         <v>40</v>
       </c>
@@ -9548,7 +10503,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="44">
         <v>40</v>
       </c>
@@ -9589,7 +10544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="44">
         <v>40</v>
       </c>
@@ -9630,7 +10585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" s="44">
         <v>41</v>
       </c>
@@ -9671,7 +10626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="44">
         <v>41</v>
       </c>
@@ -9712,7 +10667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="44">
         <v>41</v>
       </c>
@@ -9753,7 +10708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="44">
         <v>42</v>
       </c>
@@ -9794,7 +10749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" s="44">
         <v>42</v>
       </c>
@@ -9835,7 +10790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" s="44">
         <v>42</v>
       </c>
@@ -9876,7 +10831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" s="44">
         <v>42</v>
       </c>
@@ -9917,7 +10872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" s="44">
         <v>42</v>
       </c>
@@ -9958,7 +10913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="27">
         <v>42</v>
       </c>
@@ -10003,7 +10958,7 @@
       <c r="Q181" s="25"/>
       <c r="R181" s="25"/>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" s="44">
         <v>43</v>
       </c>
@@ -10044,7 +10999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183" s="44">
         <v>43</v>
       </c>
@@ -10085,7 +11040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" s="44">
         <v>43</v>
       </c>
@@ -10126,7 +11081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" s="44">
         <v>44</v>
       </c>
@@ -10167,7 +11122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" s="44">
         <v>44</v>
       </c>
@@ -10208,7 +11163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" s="44">
         <v>44</v>
       </c>
@@ -10249,7 +11204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" s="44">
         <v>45</v>
       </c>
@@ -10290,7 +11245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" s="44">
         <v>45</v>
       </c>
@@ -10331,7 +11286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" s="44">
         <v>45</v>
       </c>
@@ -10372,7 +11327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" s="44">
         <v>45</v>
       </c>
@@ -10413,7 +11368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" s="44">
         <v>45</v>
       </c>
@@ -10454,7 +11409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="27">
         <v>45</v>
       </c>
@@ -10499,7 +11454,7 @@
       <c r="Q193" s="25"/>
       <c r="R193" s="25"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" s="52"/>
       <c r="B194" t="s">
         <v>469</v>
@@ -10544,7 +11499,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>472</v>
       </c>
@@ -10588,7 +11543,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>476</v>
       </c>
@@ -10629,7 +11584,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>477</v>
       </c>
@@ -10667,7 +11622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>479</v>
       </c>
@@ -10705,7 +11660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>480</v>
       </c>
@@ -10743,7 +11698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>483</v>
       </c>
@@ -10781,7 +11736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>484</v>
       </c>
@@ -10819,7 +11774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>485</v>
       </c>
@@ -10857,7 +11812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>486</v>
       </c>
@@ -10895,7 +11850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>491</v>
       </c>
@@ -10933,7 +11888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>492</v>
       </c>
@@ -10971,7 +11926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B206" s="24" t="s">
         <v>493</v>
       </c>
@@ -11013,7 +11968,7 @@
       <c r="Q206" s="25"/>
       <c r="R206" s="25"/>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>500</v>
       </c>
@@ -11054,7 +12009,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>501</v>
       </c>
@@ -11092,7 +12047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>504</v>
       </c>
@@ -11133,7 +12088,7 @@
         <v>13312</v>
       </c>
     </row>
-    <row r="210" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>505</v>
       </c>
@@ -11171,7 +12126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>508</v>
       </c>
@@ -11209,7 +12164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>510</v>
       </c>
@@ -11247,7 +12202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
         <v>512</v>
       </c>
@@ -11285,7 +12240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
         <v>513</v>
       </c>
@@ -11323,7 +12278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>516</v>
       </c>
@@ -11361,7 +12316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
         <v>517</v>
       </c>
@@ -11399,7 +12354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
         <v>518</v>
       </c>
@@ -11437,7 +12392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
         <v>519</v>
       </c>
@@ -11475,7 +12430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B219" s="24" t="s">
         <v>520</v>
       </c>
@@ -11517,7 +12472,7 @@
       <c r="Q219" s="25"/>
       <c r="R219" s="25"/>
     </row>
-    <row r="220" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
         <v>527</v>
       </c>
@@ -11561,7 +12516,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="221" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
         <v>530</v>
       </c>
@@ -11599,7 +12554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
         <v>531</v>
       </c>
@@ -11637,7 +12592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
         <v>532</v>
       </c>
@@ -11678,7 +12633,7 @@
         <v>15974</v>
       </c>
     </row>
-    <row r="224" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
         <v>535</v>
       </c>
@@ -11716,7 +12671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
         <v>537</v>
       </c>
@@ -11754,7 +12709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
         <v>539</v>
       </c>
@@ -11792,7 +12747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
         <v>541</v>
       </c>
@@ -11830,7 +12785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
         <v>543</v>
       </c>
@@ -11868,7 +12823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
         <v>544</v>
       </c>
@@ -11906,7 +12861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
         <v>547</v>
       </c>
@@ -11944,7 +12899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
         <v>549</v>
       </c>
@@ -11982,7 +12937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B232" s="24" t="s">
         <v>550</v>
       </c>
@@ -12024,7 +12979,7 @@
       <c r="Q232" s="25"/>
       <c r="R232" s="25"/>
     </row>
-    <row r="233" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
         <v>554</v>
       </c>
@@ -12065,7 +13020,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="234" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>555</v>
       </c>
@@ -12103,7 +13058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
         <v>558</v>
       </c>
@@ -12144,7 +13099,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="236" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
         <v>557</v>
       </c>
@@ -12182,7 +13137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
         <v>564</v>
       </c>
@@ -12220,7 +13175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
         <v>562</v>
       </c>
@@ -12258,7 +13213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
         <v>567</v>
       </c>
@@ -12299,7 +13254,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="240" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
         <v>565</v>
       </c>
@@ -12340,7 +13295,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="241" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>571</v>
       </c>
@@ -12378,7 +13333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
         <v>573</v>
       </c>
@@ -12416,7 +13371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
         <v>575</v>
       </c>
@@ -12454,7 +13409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
         <v>576</v>
       </c>
@@ -12492,7 +13447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B245" s="24" t="s">
         <v>577</v>
       </c>
@@ -12533,6 +13488,5447 @@
       <c r="O245" s="25"/>
       <c r="Q245" s="25"/>
       <c r="R245" s="25"/>
+    </row>
+    <row r="246" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B246" t="s">
+        <v>585</v>
+      </c>
+      <c r="C246" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D246" t="s">
+        <v>584</v>
+      </c>
+      <c r="E246" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F246" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G246" s="44" t="s">
+        <v>471</v>
+      </c>
+      <c r="H246" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M246" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S246" t="s">
+        <v>609</v>
+      </c>
+      <c r="T246" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="247" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B247" t="s">
+        <v>586</v>
+      </c>
+      <c r="C247" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>587</v>
+      </c>
+      <c r="E247" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F247" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G247" s="44" t="s">
+        <v>471</v>
+      </c>
+      <c r="H247" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M247" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="N247" s="9" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="248" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
+        <v>606</v>
+      </c>
+      <c r="C248" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D248" t="s">
+        <v>607</v>
+      </c>
+      <c r="E248" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F248" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G248" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H248" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M248" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="N248" s="28" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="249" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B249" t="s">
+        <v>594</v>
+      </c>
+      <c r="C249" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D249" t="s">
+        <v>595</v>
+      </c>
+      <c r="E249" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F249" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G249" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H249" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M249" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="N249" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="T249">
+        <v>33124</v>
+      </c>
+    </row>
+    <row r="250" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B250" t="s">
+        <v>588</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D250" t="s">
+        <v>589</v>
+      </c>
+      <c r="E250" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F250" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G250" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H250" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M250" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B251" t="s">
+        <v>593</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D251" t="s">
+        <v>592</v>
+      </c>
+      <c r="E251" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F251" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G251" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H251" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M251" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B252" t="s">
+        <v>602</v>
+      </c>
+      <c r="C252" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D252" t="s">
+        <v>603</v>
+      </c>
+      <c r="E252" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F252" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G252" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H252" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M252" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B253" t="s">
+        <v>596</v>
+      </c>
+      <c r="C253" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D253" t="s">
+        <v>597</v>
+      </c>
+      <c r="E253" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F253" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G253" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H253" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I253" s="42">
+        <v>0</v>
+      </c>
+      <c r="J253" s="42">
+        <v>0</v>
+      </c>
+      <c r="K253" s="42">
+        <v>0</v>
+      </c>
+      <c r="L253" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M253" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B254" t="s">
+        <v>599</v>
+      </c>
+      <c r="C254" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D254" t="s">
+        <v>598</v>
+      </c>
+      <c r="E254" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F254" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G254" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H254" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M254" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B255" t="s">
+        <v>601</v>
+      </c>
+      <c r="C255" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="D255" t="s">
+        <v>600</v>
+      </c>
+      <c r="E255" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F255" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G255" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="H255" s="56">
+        <v>3800</v>
+      </c>
+      <c r="I255" s="56">
+        <v>0</v>
+      </c>
+      <c r="J255" s="56">
+        <v>0</v>
+      </c>
+      <c r="K255" s="56">
+        <v>0</v>
+      </c>
+      <c r="L255" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M255" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="N255" s="57"/>
+    </row>
+    <row r="256" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B256" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="C256" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D256" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="E256" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F256" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G256" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H256" s="24">
+        <v>3800</v>
+      </c>
+      <c r="I256" s="24">
+        <v>0</v>
+      </c>
+      <c r="J256" s="24">
+        <v>0</v>
+      </c>
+      <c r="K256" s="24">
+        <v>0</v>
+      </c>
+      <c r="L256" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M256" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O256" s="25"/>
+      <c r="Q256" s="25"/>
+      <c r="R256" s="25"/>
+    </row>
+    <row r="257" spans="2:20" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C257" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D257" s="56" t="s">
+        <v>610</v>
+      </c>
+      <c r="E257" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F257" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G257" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="H257" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M257" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="O257" s="54"/>
+      <c r="Q257" s="54"/>
+      <c r="R257" s="54"/>
+      <c r="S257" s="56" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="258" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
+        <v>612</v>
+      </c>
+      <c r="C258" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D258" t="s">
+        <v>613</v>
+      </c>
+      <c r="E258" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F258" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G258" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="H258" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M258" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B259" t="s">
+        <v>614</v>
+      </c>
+      <c r="C259" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D259" t="s">
+        <v>615</v>
+      </c>
+      <c r="E259" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F259" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G259" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="H259" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M259" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B260" t="s">
+        <v>617</v>
+      </c>
+      <c r="C260" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D260" t="s">
+        <v>616</v>
+      </c>
+      <c r="E260" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F260" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G260" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H260" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M260" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T260">
+        <v>19769</v>
+      </c>
+    </row>
+    <row r="261" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
+        <v>618</v>
+      </c>
+      <c r="C261" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D261" t="s">
+        <v>619</v>
+      </c>
+      <c r="E261" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F261" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G261" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H261" s="56">
+        <v>3800</v>
+      </c>
+      <c r="I261" s="56">
+        <v>0</v>
+      </c>
+      <c r="J261" s="56">
+        <v>0</v>
+      </c>
+      <c r="K261" s="56">
+        <v>0</v>
+      </c>
+      <c r="L261" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M261" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="N261" s="57"/>
+    </row>
+    <row r="262" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
+        <v>621</v>
+      </c>
+      <c r="C262" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D262" t="s">
+        <v>620</v>
+      </c>
+      <c r="E262" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F262" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G262" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H262" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M262" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B263" t="s">
+        <v>622</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D263" t="s">
+        <v>623</v>
+      </c>
+      <c r="E263" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F263" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G263" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H263" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M263" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B264" t="s">
+        <v>625</v>
+      </c>
+      <c r="C264" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D264" t="s">
+        <v>624</v>
+      </c>
+      <c r="E264" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F264" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G264" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H264" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M264" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
+        <v>626</v>
+      </c>
+      <c r="C265" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D265" t="s">
+        <v>627</v>
+      </c>
+      <c r="E265" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F265" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G265" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H265" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M265" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B266" t="s">
+        <v>629</v>
+      </c>
+      <c r="C266" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D266" t="s">
+        <v>628</v>
+      </c>
+      <c r="E266" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F266" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G266" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H266" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I266" s="42">
+        <v>0</v>
+      </c>
+      <c r="J266" s="42">
+        <v>0</v>
+      </c>
+      <c r="K266" s="42">
+        <v>0</v>
+      </c>
+      <c r="L266" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M266" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B267" t="s">
+        <v>631</v>
+      </c>
+      <c r="C267" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D267" t="s">
+        <v>630</v>
+      </c>
+      <c r="E267" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F267" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G267" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H267" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M267" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B268" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="C268" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D268" s="24" t="s">
+        <v>633</v>
+      </c>
+      <c r="E268" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F268" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G268" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H268" s="24">
+        <v>3800</v>
+      </c>
+      <c r="I268" s="24">
+        <v>0</v>
+      </c>
+      <c r="J268" s="24">
+        <v>0</v>
+      </c>
+      <c r="K268" s="24">
+        <v>0</v>
+      </c>
+      <c r="L268" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M268" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N268" s="28"/>
+      <c r="O268" s="25"/>
+      <c r="Q268" s="25"/>
+      <c r="R268" s="25"/>
+    </row>
+    <row r="269" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C269" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D269" t="s">
+        <v>642</v>
+      </c>
+      <c r="E269" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F269" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G269" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="H269" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M269" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S269" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="270" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B270" t="s">
+        <v>640</v>
+      </c>
+      <c r="C270" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D270" t="s">
+        <v>641</v>
+      </c>
+      <c r="E270" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F270" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G270" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="H270" s="56">
+        <v>3800</v>
+      </c>
+      <c r="I270" s="56">
+        <v>0</v>
+      </c>
+      <c r="J270" s="56">
+        <v>0</v>
+      </c>
+      <c r="K270" s="56">
+        <v>0</v>
+      </c>
+      <c r="L270" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M270" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B271" t="s">
+        <v>637</v>
+      </c>
+      <c r="C271" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D271" t="s">
+        <v>639</v>
+      </c>
+      <c r="E271" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F271" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G271" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="H271" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M271" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T271">
+        <v>9244</v>
+      </c>
+    </row>
+    <row r="272" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B272" t="s">
+        <v>636</v>
+      </c>
+      <c r="C272" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D272" t="s">
+        <v>635</v>
+      </c>
+      <c r="E272" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F272" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G272" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="H272" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M272" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B273" s="24" t="s">
+        <v>643</v>
+      </c>
+      <c r="C273" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D273" s="24" t="s">
+        <v>638</v>
+      </c>
+      <c r="E273" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F273" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G273" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="H273" s="24">
+        <v>3800</v>
+      </c>
+      <c r="I273" s="24">
+        <v>0</v>
+      </c>
+      <c r="J273" s="24">
+        <v>0</v>
+      </c>
+      <c r="K273" s="24">
+        <v>0</v>
+      </c>
+      <c r="L273" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M273" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N273" s="28"/>
+      <c r="O273" s="25"/>
+      <c r="Q273" s="25"/>
+      <c r="R273" s="25"/>
+    </row>
+    <row r="274" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C274" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D274" t="s">
+        <v>644</v>
+      </c>
+      <c r="E274" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F274" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G274" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="H274" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M274" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S274" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="275" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B275" t="s">
+        <v>648</v>
+      </c>
+      <c r="C275" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D275" t="s">
+        <v>647</v>
+      </c>
+      <c r="E275" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F275" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G275" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="H275" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M275" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B276" t="s">
+        <v>646</v>
+      </c>
+      <c r="C276" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D276" t="s">
+        <v>645</v>
+      </c>
+      <c r="E276" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F276" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G276" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="H276" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M276" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B277" t="s">
+        <v>652</v>
+      </c>
+      <c r="C277" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277" t="s">
+        <v>651</v>
+      </c>
+      <c r="E277" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F277" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G277" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="H277" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M277" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B278" t="s">
+        <v>650</v>
+      </c>
+      <c r="C278" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D278" t="s">
+        <v>649</v>
+      </c>
+      <c r="E278" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F278" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G278" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="H278" s="56">
+        <v>3800</v>
+      </c>
+      <c r="I278" s="56">
+        <v>0</v>
+      </c>
+      <c r="J278" s="56">
+        <v>0</v>
+      </c>
+      <c r="K278" s="56">
+        <v>0</v>
+      </c>
+      <c r="L278" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M278" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B279" t="s">
+        <v>655</v>
+      </c>
+      <c r="C279" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D279" t="s">
+        <v>656</v>
+      </c>
+      <c r="E279" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F279" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G279" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="H279" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M279" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B280" t="s">
+        <v>657</v>
+      </c>
+      <c r="C280" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D280" t="s">
+        <v>658</v>
+      </c>
+      <c r="E280" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F280" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G280" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="H280" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M280" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B281" t="s">
+        <v>659</v>
+      </c>
+      <c r="C281" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D281" t="s">
+        <v>660</v>
+      </c>
+      <c r="E281" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F281" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G281" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="H281" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M281" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B282" t="s">
+        <v>661</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D282" t="s">
+        <v>662</v>
+      </c>
+      <c r="E282" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F282" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G282" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="H282" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M282" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B283" t="s">
+        <v>663</v>
+      </c>
+      <c r="C283" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D283" t="s">
+        <v>664</v>
+      </c>
+      <c r="E283" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F283" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G283" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="H283" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M283" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B284" t="s">
+        <v>665</v>
+      </c>
+      <c r="C284" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D284" t="s">
+        <v>666</v>
+      </c>
+      <c r="E284" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F284" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G284" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="H284" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I284" s="42">
+        <v>0</v>
+      </c>
+      <c r="J284" s="42">
+        <v>0</v>
+      </c>
+      <c r="K284" s="42">
+        <v>0</v>
+      </c>
+      <c r="L284" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M284" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B285" t="s">
+        <v>667</v>
+      </c>
+      <c r="C285" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D285" t="s">
+        <v>668</v>
+      </c>
+      <c r="E285" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F285" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G285" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="H285" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M285" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B286" s="24" t="s">
+        <v>669</v>
+      </c>
+      <c r="C286" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D286" s="24" t="s">
+        <v>670</v>
+      </c>
+      <c r="E286" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F286" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G286" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="H286" s="24">
+        <v>3800</v>
+      </c>
+      <c r="I286" s="24">
+        <v>0</v>
+      </c>
+      <c r="J286" s="24">
+        <v>0</v>
+      </c>
+      <c r="K286" s="24">
+        <v>0</v>
+      </c>
+      <c r="L286" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M286" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N286" s="28"/>
+      <c r="O286" s="25"/>
+      <c r="Q286" s="25"/>
+      <c r="R286" s="25"/>
+    </row>
+    <row r="287" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C287" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D287" t="s">
+        <v>674</v>
+      </c>
+      <c r="E287" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F287" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G287" s="44" t="s">
+        <v>673</v>
+      </c>
+      <c r="H287" s="15">
+        <v>7250</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M287" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S287" t="s">
+        <v>676</v>
+      </c>
+      <c r="T287" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="288" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B288" t="s">
+        <v>678</v>
+      </c>
+      <c r="C288" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D288" t="s">
+        <v>679</v>
+      </c>
+      <c r="E288" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F288" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G288" s="44" t="s">
+        <v>673</v>
+      </c>
+      <c r="H288" s="15">
+        <v>7250</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M288" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S288" t="s">
+        <v>677</v>
+      </c>
+      <c r="T288" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="289" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B289" t="s">
+        <v>680</v>
+      </c>
+      <c r="C289" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D289" t="s">
+        <v>681</v>
+      </c>
+      <c r="E289" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F289" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G289" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="H289" s="15">
+        <v>7250</v>
+      </c>
+      <c r="I289" s="56">
+        <v>0</v>
+      </c>
+      <c r="J289" s="56">
+        <v>0</v>
+      </c>
+      <c r="K289" s="56">
+        <v>0</v>
+      </c>
+      <c r="L289" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M289" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B290" t="s">
+        <v>682</v>
+      </c>
+      <c r="C290" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D290" t="s">
+        <v>683</v>
+      </c>
+      <c r="E290" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F290" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G290" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="H290" s="15">
+        <v>7250</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M290" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B291" t="s">
+        <v>684</v>
+      </c>
+      <c r="C291" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D291" t="s">
+        <v>685</v>
+      </c>
+      <c r="E291" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F291" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G291" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="H291" s="15">
+        <v>7250</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M291" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B292" t="s">
+        <v>686</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D292" t="s">
+        <v>687</v>
+      </c>
+      <c r="E292" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F292" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G292" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="H292" s="15">
+        <v>7250</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
+      <c r="L292" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M292" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B293" t="s">
+        <v>688</v>
+      </c>
+      <c r="C293" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D293" t="s">
+        <v>689</v>
+      </c>
+      <c r="E293" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F293" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G293" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="H293" s="15">
+        <v>7250</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M293" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B294" t="s">
+        <v>690</v>
+      </c>
+      <c r="C294" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D294" t="s">
+        <v>691</v>
+      </c>
+      <c r="E294" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F294" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G294" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="H294" s="15">
+        <v>7250</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M294" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B295" t="s">
+        <v>693</v>
+      </c>
+      <c r="C295" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D295" t="s">
+        <v>692</v>
+      </c>
+      <c r="E295" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F295" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G295" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="H295" s="15">
+        <v>7250</v>
+      </c>
+      <c r="I295" s="42">
+        <v>0</v>
+      </c>
+      <c r="J295" s="42">
+        <v>0</v>
+      </c>
+      <c r="K295" s="42">
+        <v>0</v>
+      </c>
+      <c r="L295" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M295" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B296" t="s">
+        <v>694</v>
+      </c>
+      <c r="C296" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D296" t="s">
+        <v>695</v>
+      </c>
+      <c r="E296" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F296" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G296" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="H296" s="15">
+        <v>7250</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>0</v>
+      </c>
+      <c r="L296" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M296" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B297" s="24" t="s">
+        <v>698</v>
+      </c>
+      <c r="C297" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D297" s="24" t="s">
+        <v>697</v>
+      </c>
+      <c r="E297" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F297" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G297" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H297" s="26">
+        <v>7250</v>
+      </c>
+      <c r="I297" s="24">
+        <v>0</v>
+      </c>
+      <c r="J297" s="24">
+        <v>0</v>
+      </c>
+      <c r="K297" s="24">
+        <v>0</v>
+      </c>
+      <c r="L297" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M297" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N297" s="28"/>
+      <c r="O297" s="25"/>
+      <c r="Q297" s="25"/>
+      <c r="R297" s="25"/>
+    </row>
+    <row r="298" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C298" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D298" t="s">
+        <v>700</v>
+      </c>
+      <c r="E298" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F298" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G298" s="44" t="s">
+        <v>699</v>
+      </c>
+      <c r="H298" s="15">
+        <v>7300</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M298" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S298" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="299" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B299" t="s">
+        <v>701</v>
+      </c>
+      <c r="C299" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D299" t="s">
+        <v>702</v>
+      </c>
+      <c r="E299" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F299" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G299" s="44" t="s">
+        <v>699</v>
+      </c>
+      <c r="H299" s="15">
+        <v>7300</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M299" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B300" t="s">
+        <v>703</v>
+      </c>
+      <c r="C300" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D300" t="s">
+        <v>704</v>
+      </c>
+      <c r="E300" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F300" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G300" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="H300" s="15">
+        <v>7300</v>
+      </c>
+      <c r="I300" s="56">
+        <v>0</v>
+      </c>
+      <c r="J300" s="56">
+        <v>0</v>
+      </c>
+      <c r="K300" s="56">
+        <v>0</v>
+      </c>
+      <c r="L300" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M300" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B301" t="s">
+        <v>705</v>
+      </c>
+      <c r="C301" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D301" t="s">
+        <v>706</v>
+      </c>
+      <c r="E301" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F301" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G301" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="H301" s="15">
+        <v>7300</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+      <c r="L301" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M301" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B302" t="s">
+        <v>707</v>
+      </c>
+      <c r="C302" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D302" t="s">
+        <v>714</v>
+      </c>
+      <c r="E302" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F302" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G302" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="H302" s="15">
+        <v>7300</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M302" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B303" t="s">
+        <v>708</v>
+      </c>
+      <c r="C303" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D303" t="s">
+        <v>715</v>
+      </c>
+      <c r="E303" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F303" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G303" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="H303" s="15">
+        <v>7300</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>0</v>
+      </c>
+      <c r="L303" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M303" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B304" t="s">
+        <v>709</v>
+      </c>
+      <c r="C304" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D304" t="s">
+        <v>716</v>
+      </c>
+      <c r="E304" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F304" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G304" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="H304" s="15">
+        <v>7300</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
+      <c r="L304" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M304" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B305" t="s">
+        <v>710</v>
+      </c>
+      <c r="C305" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D305" t="s">
+        <v>717</v>
+      </c>
+      <c r="E305" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F305" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G305" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="H305" s="15">
+        <v>7300</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+      <c r="L305" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M305" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B306" t="s">
+        <v>711</v>
+      </c>
+      <c r="C306" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D306" t="s">
+        <v>718</v>
+      </c>
+      <c r="E306" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F306" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G306" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="H306" s="15">
+        <v>7300</v>
+      </c>
+      <c r="I306" s="42">
+        <v>0</v>
+      </c>
+      <c r="J306" s="42">
+        <v>0</v>
+      </c>
+      <c r="K306" s="42">
+        <v>0</v>
+      </c>
+      <c r="L306" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M306" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B307" t="s">
+        <v>712</v>
+      </c>
+      <c r="C307" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D307" t="s">
+        <v>719</v>
+      </c>
+      <c r="E307" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F307" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G307" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="H307" s="15">
+        <v>7300</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>0</v>
+      </c>
+      <c r="L307" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M307" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B308" s="24" t="s">
+        <v>713</v>
+      </c>
+      <c r="C308" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D308" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="E308" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F308" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G308" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="H308" s="26">
+        <v>7300</v>
+      </c>
+      <c r="I308" s="24">
+        <v>0</v>
+      </c>
+      <c r="J308" s="24">
+        <v>0</v>
+      </c>
+      <c r="K308" s="24">
+        <v>0</v>
+      </c>
+      <c r="L308" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M308" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N308" s="28"/>
+      <c r="O308" s="25"/>
+      <c r="Q308" s="25"/>
+      <c r="R308" s="25"/>
+    </row>
+    <row r="309" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C309" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D309" t="s">
+        <v>723</v>
+      </c>
+      <c r="E309" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F309" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G309" s="44" t="s">
+        <v>466</v>
+      </c>
+      <c r="H309" s="15">
+        <v>6800</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+      <c r="L309" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M309" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S309" t="s">
+        <v>722</v>
+      </c>
+      <c r="T309" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="310" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B310" t="s">
+        <v>725</v>
+      </c>
+      <c r="C310" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D310" t="s">
+        <v>726</v>
+      </c>
+      <c r="E310" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F310" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G310" s="44" t="s">
+        <v>466</v>
+      </c>
+      <c r="H310" s="15">
+        <v>6800</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>0</v>
+      </c>
+      <c r="L310" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M310" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B311" t="s">
+        <v>727</v>
+      </c>
+      <c r="C311" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D311" t="s">
+        <v>728</v>
+      </c>
+      <c r="E311" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F311" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G311" s="44" t="s">
+        <v>724</v>
+      </c>
+      <c r="H311" s="15">
+        <v>6800</v>
+      </c>
+      <c r="I311" s="56">
+        <v>0</v>
+      </c>
+      <c r="J311" s="56">
+        <v>0</v>
+      </c>
+      <c r="K311" s="56">
+        <v>0</v>
+      </c>
+      <c r="L311" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M311" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B312" t="s">
+        <v>729</v>
+      </c>
+      <c r="C312" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D312" t="s">
+        <v>730</v>
+      </c>
+      <c r="E312" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F312" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G312" s="44" t="s">
+        <v>724</v>
+      </c>
+      <c r="H312" s="15">
+        <v>6800</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+      <c r="L312" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M312" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B313" t="s">
+        <v>731</v>
+      </c>
+      <c r="C313" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D313" t="s">
+        <v>732</v>
+      </c>
+      <c r="E313" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F313" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G313" s="44" t="s">
+        <v>724</v>
+      </c>
+      <c r="H313" s="15">
+        <v>6800</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+      <c r="L313" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M313" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B314" t="s">
+        <v>733</v>
+      </c>
+      <c r="C314" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D314" t="s">
+        <v>734</v>
+      </c>
+      <c r="E314" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F314" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G314" s="44" t="s">
+        <v>724</v>
+      </c>
+      <c r="H314" s="15">
+        <v>6800</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>0</v>
+      </c>
+      <c r="L314" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M314" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B315" t="s">
+        <v>735</v>
+      </c>
+      <c r="C315" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D315" t="s">
+        <v>736</v>
+      </c>
+      <c r="E315" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F315" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G315" s="44" t="s">
+        <v>724</v>
+      </c>
+      <c r="H315" s="15">
+        <v>6800</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315">
+        <v>0</v>
+      </c>
+      <c r="L315" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M315" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B316" t="s">
+        <v>738</v>
+      </c>
+      <c r="C316" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D316" t="s">
+        <v>737</v>
+      </c>
+      <c r="E316" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F316" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G316" s="44" t="s">
+        <v>724</v>
+      </c>
+      <c r="H316" s="15">
+        <v>6800</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316">
+        <v>0</v>
+      </c>
+      <c r="L316" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M316" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B317" t="s">
+        <v>739</v>
+      </c>
+      <c r="C317" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D317" t="s">
+        <v>740</v>
+      </c>
+      <c r="E317" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F317" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G317" s="44" t="s">
+        <v>724</v>
+      </c>
+      <c r="H317" s="15">
+        <v>6800</v>
+      </c>
+      <c r="I317" s="42">
+        <v>0</v>
+      </c>
+      <c r="J317" s="42">
+        <v>0</v>
+      </c>
+      <c r="K317" s="42">
+        <v>0</v>
+      </c>
+      <c r="L317" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M317" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B318" t="s">
+        <v>741</v>
+      </c>
+      <c r="C318" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D318" t="s">
+        <v>743</v>
+      </c>
+      <c r="E318" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F318" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G318" s="44" t="s">
+        <v>724</v>
+      </c>
+      <c r="H318" s="15">
+        <v>6800</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318">
+        <v>0</v>
+      </c>
+      <c r="L318" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M318" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B319" s="24" t="s">
+        <v>742</v>
+      </c>
+      <c r="C319" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D319" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="E319" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F319" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G319" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="H319" s="26">
+        <v>6800</v>
+      </c>
+      <c r="I319" s="24">
+        <v>0</v>
+      </c>
+      <c r="J319" s="24">
+        <v>0</v>
+      </c>
+      <c r="K319" s="24">
+        <v>0</v>
+      </c>
+      <c r="L319" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M319" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N319" s="28"/>
+      <c r="O319" s="25"/>
+      <c r="Q319" s="25"/>
+      <c r="R319" s="25"/>
+    </row>
+    <row r="320" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C320" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D320" t="s">
+        <v>745</v>
+      </c>
+      <c r="E320" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F320" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G320" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="H320" s="58">
+        <v>7100</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+      <c r="K320">
+        <v>0</v>
+      </c>
+      <c r="L320" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M320" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S320" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="321" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B321" t="s">
+        <v>746</v>
+      </c>
+      <c r="C321" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D321" t="s">
+        <v>748</v>
+      </c>
+      <c r="E321" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F321" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G321" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="H321" s="58">
+        <v>7100</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>0</v>
+      </c>
+      <c r="L321" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M321" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T321" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="322" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B322" t="s">
+        <v>747</v>
+      </c>
+      <c r="C322" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D322" t="s">
+        <v>749</v>
+      </c>
+      <c r="E322" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F322" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G322" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="H322" s="58">
+        <v>7100</v>
+      </c>
+      <c r="I322" s="56">
+        <v>0</v>
+      </c>
+      <c r="J322" s="56">
+        <v>0</v>
+      </c>
+      <c r="K322" s="56">
+        <v>0</v>
+      </c>
+      <c r="L322" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M322" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B323" t="s">
+        <v>751</v>
+      </c>
+      <c r="C323" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D323" t="s">
+        <v>750</v>
+      </c>
+      <c r="E323" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F323" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G323" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="H323" s="58">
+        <v>7100</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+      <c r="L323" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M323" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B324" t="s">
+        <v>753</v>
+      </c>
+      <c r="C324" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D324" t="s">
+        <v>752</v>
+      </c>
+      <c r="E324" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F324" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G324" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="H324" s="58">
+        <v>7100</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>0</v>
+      </c>
+      <c r="L324" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M324" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B325" t="s">
+        <v>756</v>
+      </c>
+      <c r="C325" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D325" t="s">
+        <v>755</v>
+      </c>
+      <c r="E325" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F325" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G325" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="H325" s="58">
+        <v>7100</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
+      <c r="L325" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M325" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B326" t="s">
+        <v>757</v>
+      </c>
+      <c r="C326" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D326" t="s">
+        <v>754</v>
+      </c>
+      <c r="E326" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F326" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G326" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="H326" s="58">
+        <v>7100</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>0</v>
+      </c>
+      <c r="L326" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M326" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B327" t="s">
+        <v>759</v>
+      </c>
+      <c r="C327" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D327" t="s">
+        <v>761</v>
+      </c>
+      <c r="E327" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F327" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G327" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="H327" s="58">
+        <v>7100</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>0</v>
+      </c>
+      <c r="L327" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M327" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B328" t="s">
+        <v>760</v>
+      </c>
+      <c r="C328" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D328" t="s">
+        <v>758</v>
+      </c>
+      <c r="E328" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F328" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G328" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="H328" s="58">
+        <v>7100</v>
+      </c>
+      <c r="I328" s="42">
+        <v>0</v>
+      </c>
+      <c r="J328" s="42">
+        <v>0</v>
+      </c>
+      <c r="K328" s="42">
+        <v>0</v>
+      </c>
+      <c r="L328" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M328" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B329" t="s">
+        <v>762</v>
+      </c>
+      <c r="C329" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D329" t="s">
+        <v>764</v>
+      </c>
+      <c r="E329" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F329" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G329" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="H329" s="58">
+        <v>7100</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>0</v>
+      </c>
+      <c r="L329" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M329" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B330" s="24" t="s">
+        <v>763</v>
+      </c>
+      <c r="C330" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D330" s="24" t="s">
+        <v>765</v>
+      </c>
+      <c r="E330" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F330" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G330" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="H330" s="59">
+        <v>7100</v>
+      </c>
+      <c r="I330" s="24">
+        <v>0</v>
+      </c>
+      <c r="J330" s="24">
+        <v>0</v>
+      </c>
+      <c r="K330" s="24">
+        <v>0</v>
+      </c>
+      <c r="L330" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M330" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N330" s="28"/>
+      <c r="O330" s="25"/>
+      <c r="Q330" s="25"/>
+      <c r="R330" s="25"/>
+    </row>
+    <row r="331" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C331" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D331" t="s">
+        <v>769</v>
+      </c>
+      <c r="E331" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F331" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G331" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="H331" s="58">
+        <v>7500</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>0</v>
+      </c>
+      <c r="L331" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M331" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S331" t="s">
+        <v>768</v>
+      </c>
+      <c r="T331" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="332" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B332" t="s">
+        <v>770</v>
+      </c>
+      <c r="C332" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D332" t="s">
+        <v>771</v>
+      </c>
+      <c r="E332" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F332" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G332" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="H332" s="58">
+        <v>7500</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>0</v>
+      </c>
+      <c r="L332" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M332" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T332" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="333" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B333" t="s">
+        <v>773</v>
+      </c>
+      <c r="C333" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D333" t="s">
+        <v>772</v>
+      </c>
+      <c r="E333" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F333" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G333" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="H333" s="58">
+        <v>7500</v>
+      </c>
+      <c r="I333" s="56">
+        <v>0</v>
+      </c>
+      <c r="J333" s="56">
+        <v>0</v>
+      </c>
+      <c r="K333" s="56">
+        <v>0</v>
+      </c>
+      <c r="L333" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M333" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="T333" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="334" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B334" t="s">
+        <v>774</v>
+      </c>
+      <c r="C334" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D334" t="s">
+        <v>775</v>
+      </c>
+      <c r="E334" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F334" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G334" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="H334" s="58">
+        <v>7500</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>0</v>
+      </c>
+      <c r="L334" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M334" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B335" t="s">
+        <v>777</v>
+      </c>
+      <c r="C335" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D335" t="s">
+        <v>776</v>
+      </c>
+      <c r="E335" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F335" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G335" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="H335" s="58">
+        <v>7500</v>
+      </c>
+      <c r="I335">
+        <v>0</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335">
+        <v>0</v>
+      </c>
+      <c r="L335" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M335" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B336" t="s">
+        <v>779</v>
+      </c>
+      <c r="C336" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D336" t="s">
+        <v>778</v>
+      </c>
+      <c r="E336" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F336" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G336" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="H336" s="58">
+        <v>7500</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336">
+        <v>0</v>
+      </c>
+      <c r="L336" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M336" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B337" t="s">
+        <v>780</v>
+      </c>
+      <c r="C337" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D337" t="s">
+        <v>781</v>
+      </c>
+      <c r="E337" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F337" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G337" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="H337" s="58">
+        <v>7500</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>0</v>
+      </c>
+      <c r="L337" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M337" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B338" t="s">
+        <v>782</v>
+      </c>
+      <c r="C338" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D338" t="s">
+        <v>783</v>
+      </c>
+      <c r="E338" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F338" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G338" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="H338" s="58">
+        <v>7500</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>0</v>
+      </c>
+      <c r="L338" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M338" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B339" t="s">
+        <v>785</v>
+      </c>
+      <c r="C339" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D339" t="s">
+        <v>784</v>
+      </c>
+      <c r="E339" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F339" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G339" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="H339" s="58">
+        <v>7500</v>
+      </c>
+      <c r="I339" s="42">
+        <v>0</v>
+      </c>
+      <c r="J339" s="42">
+        <v>0</v>
+      </c>
+      <c r="K339" s="42">
+        <v>0</v>
+      </c>
+      <c r="L339" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M339" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B340" t="s">
+        <v>787</v>
+      </c>
+      <c r="C340" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D340" t="s">
+        <v>786</v>
+      </c>
+      <c r="E340" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F340" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G340" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="H340" s="58">
+        <v>7500</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>0</v>
+      </c>
+      <c r="L340" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M340" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B341" s="24" t="s">
+        <v>789</v>
+      </c>
+      <c r="C341" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D341" s="24" t="s">
+        <v>788</v>
+      </c>
+      <c r="E341" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F341" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G341" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="H341" s="59">
+        <v>7500</v>
+      </c>
+      <c r="I341" s="24">
+        <v>0</v>
+      </c>
+      <c r="J341" s="24">
+        <v>0</v>
+      </c>
+      <c r="K341" s="24">
+        <v>0</v>
+      </c>
+      <c r="L341" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M341" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N341" s="28"/>
+      <c r="O341" s="25"/>
+      <c r="Q341" s="25"/>
+      <c r="R341" s="25"/>
+    </row>
+    <row r="342" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C342" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D342" t="s">
+        <v>790</v>
+      </c>
+      <c r="E342" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F342" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G342" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="H342" s="58">
+        <v>7300</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>0</v>
+      </c>
+      <c r="L342" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M342" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S342" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="343" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B343" t="s">
+        <v>795</v>
+      </c>
+      <c r="C343" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D343" t="s">
+        <v>794</v>
+      </c>
+      <c r="E343" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F343" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G343" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="H343" s="58">
+        <v>7300</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>0</v>
+      </c>
+      <c r="L343" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M343" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T343" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="344" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B344" t="s">
+        <v>796</v>
+      </c>
+      <c r="C344" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D344" t="s">
+        <v>797</v>
+      </c>
+      <c r="E344" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F344" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G344" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="H344" s="58">
+        <v>7300</v>
+      </c>
+      <c r="I344" s="56">
+        <v>0</v>
+      </c>
+      <c r="J344" s="56">
+        <v>0</v>
+      </c>
+      <c r="K344" s="56">
+        <v>0</v>
+      </c>
+      <c r="L344" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M344" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B345" t="s">
+        <v>798</v>
+      </c>
+      <c r="C345" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D345" t="s">
+        <v>799</v>
+      </c>
+      <c r="E345" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F345" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G345" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="H345" s="58">
+        <v>7300</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345">
+        <v>0</v>
+      </c>
+      <c r="L345" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M345" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B346" t="s">
+        <v>800</v>
+      </c>
+      <c r="C346" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D346" t="s">
+        <v>802</v>
+      </c>
+      <c r="E346" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F346" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G346" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="H346" s="58">
+        <v>7300</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>0</v>
+      </c>
+      <c r="L346" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M346" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B347" t="s">
+        <v>801</v>
+      </c>
+      <c r="C347" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D347" t="s">
+        <v>803</v>
+      </c>
+      <c r="E347" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F347" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G347" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="H347" s="58">
+        <v>7300</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>0</v>
+      </c>
+      <c r="L347" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M347" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B348" t="s">
+        <v>805</v>
+      </c>
+      <c r="C348" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D348" t="s">
+        <v>804</v>
+      </c>
+      <c r="E348" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F348" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G348" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="H348" s="58">
+        <v>7300</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>0</v>
+      </c>
+      <c r="L348" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M348" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B349" t="s">
+        <v>806</v>
+      </c>
+      <c r="C349" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D349" t="s">
+        <v>807</v>
+      </c>
+      <c r="E349" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F349" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G349" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="H349" s="58">
+        <v>7300</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>0</v>
+      </c>
+      <c r="L349" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M349" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B350" t="s">
+        <v>808</v>
+      </c>
+      <c r="C350" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D350" t="s">
+        <v>809</v>
+      </c>
+      <c r="E350" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F350" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G350" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="H350" s="58">
+        <v>7300</v>
+      </c>
+      <c r="I350" s="42">
+        <v>0</v>
+      </c>
+      <c r="J350" s="42">
+        <v>0</v>
+      </c>
+      <c r="K350" s="42">
+        <v>0</v>
+      </c>
+      <c r="L350" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M350" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B351" t="s">
+        <v>811</v>
+      </c>
+      <c r="C351" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D351" t="s">
+        <v>810</v>
+      </c>
+      <c r="E351" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F351" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G351" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="H351" s="58">
+        <v>7300</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>0</v>
+      </c>
+      <c r="L351" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M351" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B352" s="24" t="s">
+        <v>812</v>
+      </c>
+      <c r="C352" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D352" s="24" t="s">
+        <v>813</v>
+      </c>
+      <c r="E352" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F352" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G352" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="H352" s="59">
+        <v>7300</v>
+      </c>
+      <c r="I352" s="24">
+        <v>0</v>
+      </c>
+      <c r="J352" s="24">
+        <v>0</v>
+      </c>
+      <c r="K352" s="24">
+        <v>0</v>
+      </c>
+      <c r="L352" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M352" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N352" s="28"/>
+      <c r="O352" s="25"/>
+      <c r="Q352" s="25"/>
+      <c r="R352" s="25"/>
+    </row>
+    <row r="353" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C353" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D353" t="s">
+        <v>817</v>
+      </c>
+      <c r="E353" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F353" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G353" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="H353" s="58">
+        <v>7600</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>0</v>
+      </c>
+      <c r="L353" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M353" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T353" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="354" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B354" t="s">
+        <v>818</v>
+      </c>
+      <c r="C354" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D354" t="s">
+        <v>819</v>
+      </c>
+      <c r="E354" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F354" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G354" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="H354" s="58">
+        <v>7600</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
+      </c>
+      <c r="L354" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M354" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S354" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="355" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B355" t="s">
+        <v>822</v>
+      </c>
+      <c r="C355" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D355" t="s">
+        <v>820</v>
+      </c>
+      <c r="E355" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F355" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G355" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="H355" s="58">
+        <v>7600</v>
+      </c>
+      <c r="I355" s="56">
+        <v>0</v>
+      </c>
+      <c r="J355" s="56">
+        <v>0</v>
+      </c>
+      <c r="K355" s="56">
+        <v>0</v>
+      </c>
+      <c r="L355" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M355" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="T355" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="356" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B356" t="s">
+        <v>823</v>
+      </c>
+      <c r="C356" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D356" t="s">
+        <v>821</v>
+      </c>
+      <c r="E356" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F356" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G356" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="H356" s="58">
+        <v>7600</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>0</v>
+      </c>
+      <c r="L356" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M356" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B357" t="s">
+        <v>824</v>
+      </c>
+      <c r="C357" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D357" t="s">
+        <v>825</v>
+      </c>
+      <c r="E357" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F357" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G357" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="H357" s="58">
+        <v>7600</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>0</v>
+      </c>
+      <c r="L357" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M357" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B358" t="s">
+        <v>826</v>
+      </c>
+      <c r="C358" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D358" t="s">
+        <v>827</v>
+      </c>
+      <c r="E358" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F358" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G358" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="H358" s="58">
+        <v>7600</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>0</v>
+      </c>
+      <c r="L358" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M358" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B359" t="s">
+        <v>828</v>
+      </c>
+      <c r="C359" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D359" t="s">
+        <v>829</v>
+      </c>
+      <c r="E359" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F359" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G359" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="H359" s="58">
+        <v>7600</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>0</v>
+      </c>
+      <c r="L359" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M359" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B360" t="s">
+        <v>831</v>
+      </c>
+      <c r="C360" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D360" t="s">
+        <v>830</v>
+      </c>
+      <c r="E360" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F360" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G360" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="H360" s="58">
+        <v>7600</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>0</v>
+      </c>
+      <c r="L360" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M360" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B361" t="s">
+        <v>832</v>
+      </c>
+      <c r="C361" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D361" t="s">
+        <v>833</v>
+      </c>
+      <c r="E361" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F361" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G361" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="H361" s="58">
+        <v>7600</v>
+      </c>
+      <c r="I361" s="42">
+        <v>0</v>
+      </c>
+      <c r="J361" s="42">
+        <v>0</v>
+      </c>
+      <c r="K361" s="42">
+        <v>0</v>
+      </c>
+      <c r="L361" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M361" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B362" t="s">
+        <v>834</v>
+      </c>
+      <c r="C362" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D362" t="s">
+        <v>835</v>
+      </c>
+      <c r="E362" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F362" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G362" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="H362" s="58">
+        <v>7600</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>0</v>
+      </c>
+      <c r="L362" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M362" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B363" s="24" t="s">
+        <v>836</v>
+      </c>
+      <c r="C363" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D363" s="24" t="s">
+        <v>837</v>
+      </c>
+      <c r="E363" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F363" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G363" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="H363" s="59">
+        <v>7600</v>
+      </c>
+      <c r="I363" s="24">
+        <v>0</v>
+      </c>
+      <c r="J363" s="24">
+        <v>0</v>
+      </c>
+      <c r="K363" s="24">
+        <v>0</v>
+      </c>
+      <c r="L363" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M363" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N363" s="28"/>
+      <c r="O363" s="25"/>
+      <c r="Q363" s="25"/>
+      <c r="R363" s="25"/>
+    </row>
+    <row r="364" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C364" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D364" t="s">
+        <v>840</v>
+      </c>
+      <c r="E364" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F364" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G364" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="H364" s="58">
+        <v>7550</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>0</v>
+      </c>
+      <c r="L364" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M364" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B365" t="s">
+        <v>843</v>
+      </c>
+      <c r="C365" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D365" t="s">
+        <v>841</v>
+      </c>
+      <c r="E365" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F365" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G365" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="H365" s="58">
+        <v>7550</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>0</v>
+      </c>
+      <c r="L365" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M365" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S365" t="s">
+        <v>816</v>
+      </c>
+      <c r="T365" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="366" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B366" t="s">
+        <v>844</v>
+      </c>
+      <c r="C366" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D366" t="s">
+        <v>842</v>
+      </c>
+      <c r="E366" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F366" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G366" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="H366" s="58">
+        <v>7550</v>
+      </c>
+      <c r="I366" s="56">
+        <v>0</v>
+      </c>
+      <c r="J366" s="56">
+        <v>0</v>
+      </c>
+      <c r="K366" s="56">
+        <v>0</v>
+      </c>
+      <c r="L366" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M366" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B367" t="s">
+        <v>846</v>
+      </c>
+      <c r="C367" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D367" t="s">
+        <v>845</v>
+      </c>
+      <c r="E367" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F367" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G367" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="H367" s="58">
+        <v>7550</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
+        <v>0</v>
+      </c>
+      <c r="L367" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M367" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B368" t="s">
+        <v>848</v>
+      </c>
+      <c r="C368" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D368" t="s">
+        <v>847</v>
+      </c>
+      <c r="E368" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F368" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G368" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="H368" s="58">
+        <v>7550</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>0</v>
+      </c>
+      <c r="L368" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M368" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B369" t="s">
+        <v>849</v>
+      </c>
+      <c r="C369" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D369" t="s">
+        <v>850</v>
+      </c>
+      <c r="E369" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F369" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G369" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="H369" s="58">
+        <v>7550</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>0</v>
+      </c>
+      <c r="L369" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M369" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="370" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B370" t="s">
+        <v>851</v>
+      </c>
+      <c r="C370" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D370" t="s">
+        <v>852</v>
+      </c>
+      <c r="E370" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F370" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G370" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="H370" s="58">
+        <v>7550</v>
+      </c>
+      <c r="I370">
+        <v>0</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370">
+        <v>0</v>
+      </c>
+      <c r="L370" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M370" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="371" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B371" t="s">
+        <v>853</v>
+      </c>
+      <c r="C371" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D371" t="s">
+        <v>855</v>
+      </c>
+      <c r="E371" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F371" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G371" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="H371" s="58">
+        <v>7550</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>0</v>
+      </c>
+      <c r="L371" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M371" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="372" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B372" t="s">
+        <v>854</v>
+      </c>
+      <c r="C372" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D372" t="s">
+        <v>858</v>
+      </c>
+      <c r="E372" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F372" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G372" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="H372" s="58">
+        <v>7550</v>
+      </c>
+      <c r="I372" s="42">
+        <v>0</v>
+      </c>
+      <c r="J372" s="42">
+        <v>0</v>
+      </c>
+      <c r="K372" s="42">
+        <v>0</v>
+      </c>
+      <c r="L372" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M372" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B373" t="s">
+        <v>856</v>
+      </c>
+      <c r="C373" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D373" t="s">
+        <v>859</v>
+      </c>
+      <c r="E373" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F373" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G373" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="H373" s="58">
+        <v>7550</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>0</v>
+      </c>
+      <c r="L373" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M373" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B374" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="C374" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D374" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="E374" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F374" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G374" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H374" s="59">
+        <v>7550</v>
+      </c>
+      <c r="I374" s="24">
+        <v>0</v>
+      </c>
+      <c r="J374" s="24">
+        <v>0</v>
+      </c>
+      <c r="K374" s="24">
+        <v>0</v>
+      </c>
+      <c r="L374" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M374" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N374" s="28"/>
+      <c r="O374" s="25"/>
+      <c r="Q374" s="25"/>
+      <c r="R374" s="25"/>
+    </row>
+    <row r="375" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C375" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D375" t="s">
+        <v>866</v>
+      </c>
+      <c r="E375" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F375" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G375" s="44" t="s">
+        <v>865</v>
+      </c>
+      <c r="H375" s="58">
+        <v>7700</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>0</v>
+      </c>
+      <c r="L375" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M375" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S375" t="s">
+        <v>862</v>
+      </c>
+      <c r="T375" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="376" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B376" t="s">
+        <v>870</v>
+      </c>
+      <c r="C376" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D376" t="s">
+        <v>868</v>
+      </c>
+      <c r="E376" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F376" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G376" s="44" t="s">
+        <v>865</v>
+      </c>
+      <c r="H376" s="58">
+        <v>7700</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>0</v>
+      </c>
+      <c r="L376" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M376" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="377" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B377" t="s">
+        <v>871</v>
+      </c>
+      <c r="C377" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D377" t="s">
+        <v>869</v>
+      </c>
+      <c r="E377" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F377" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G377" s="44" t="s">
+        <v>864</v>
+      </c>
+      <c r="H377" s="58">
+        <v>7700</v>
+      </c>
+      <c r="I377" s="56">
+        <v>0</v>
+      </c>
+      <c r="J377" s="56">
+        <v>0</v>
+      </c>
+      <c r="K377" s="56">
+        <v>0</v>
+      </c>
+      <c r="L377" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M377" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="S377" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="378" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B378" t="s">
+        <v>872</v>
+      </c>
+      <c r="C378" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D378" t="s">
+        <v>873</v>
+      </c>
+      <c r="E378" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F378" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G378" s="44" t="s">
+        <v>864</v>
+      </c>
+      <c r="H378" s="58">
+        <v>7700</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+      <c r="K378">
+        <v>0</v>
+      </c>
+      <c r="L378" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M378" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T378" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="379" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B379" t="s">
+        <v>875</v>
+      </c>
+      <c r="C379" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D379" t="s">
+        <v>874</v>
+      </c>
+      <c r="E379" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F379" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G379" s="44" t="s">
+        <v>864</v>
+      </c>
+      <c r="H379" s="58">
+        <v>7700</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379">
+        <v>0</v>
+      </c>
+      <c r="L379" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M379" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="380" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B380" t="s">
+        <v>877</v>
+      </c>
+      <c r="C380" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D380" t="s">
+        <v>876</v>
+      </c>
+      <c r="E380" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F380" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G380" s="44" t="s">
+        <v>864</v>
+      </c>
+      <c r="H380" s="58">
+        <v>7700</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>0</v>
+      </c>
+      <c r="L380" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M380" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="381" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B381" t="s">
+        <v>878</v>
+      </c>
+      <c r="C381" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D381" t="s">
+        <v>879</v>
+      </c>
+      <c r="E381" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F381" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G381" s="44" t="s">
+        <v>864</v>
+      </c>
+      <c r="H381" s="58">
+        <v>7700</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>0</v>
+      </c>
+      <c r="L381" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M381" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B382" t="s">
+        <v>880</v>
+      </c>
+      <c r="C382" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D382" t="s">
+        <v>881</v>
+      </c>
+      <c r="E382" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F382" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G382" s="44" t="s">
+        <v>864</v>
+      </c>
+      <c r="H382" s="58">
+        <v>7700</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>0</v>
+      </c>
+      <c r="L382" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M382" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B383" t="s">
+        <v>883</v>
+      </c>
+      <c r="C383" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D383" t="s">
+        <v>882</v>
+      </c>
+      <c r="E383" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F383" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G383" s="44" t="s">
+        <v>864</v>
+      </c>
+      <c r="H383" s="58">
+        <v>7700</v>
+      </c>
+      <c r="I383" s="42">
+        <v>0</v>
+      </c>
+      <c r="J383" s="42">
+        <v>0</v>
+      </c>
+      <c r="K383" s="42">
+        <v>0</v>
+      </c>
+      <c r="L383" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M383" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="384" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B384" t="s">
+        <v>885</v>
+      </c>
+      <c r="C384" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D384" t="s">
+        <v>884</v>
+      </c>
+      <c r="E384" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F384" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G384" s="44" t="s">
+        <v>864</v>
+      </c>
+      <c r="H384" s="58">
+        <v>7700</v>
+      </c>
+      <c r="I384">
+        <v>0</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+      <c r="K384">
+        <v>0</v>
+      </c>
+      <c r="L384" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M384" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B385" t="s">
+        <v>886</v>
+      </c>
+      <c r="C385" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D385" t="s">
+        <v>887</v>
+      </c>
+      <c r="E385" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F385" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G385" s="44" t="s">
+        <v>864</v>
+      </c>
+      <c r="H385" s="58">
+        <v>7700</v>
+      </c>
+      <c r="I385" s="24">
+        <v>0</v>
+      </c>
+      <c r="J385" s="24">
+        <v>0</v>
+      </c>
+      <c r="K385" s="24">
+        <v>0</v>
+      </c>
+      <c r="L385" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M385" s="27" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/utils/recordingExcel/ZYY_RNP_TBOffset_Recording.xlsx
+++ b/utils/recordingExcel/ZYY_RNP_TBOffset_Recording.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5CAF47-7764-4E04-851C-B3EDCE866143}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A85E0D-2B81-4B84-AADA-2299FF612343}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="890" windowWidth="21600" windowHeight="11390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全部" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4138" uniqueCount="1125">
   <si>
     <t>RNP_Noise</t>
   </si>
@@ -2776,6 +2776,757 @@
   </si>
   <si>
     <t>F:\neuropixels\openEphys\Ratzyy4_20231227\Record Node 105\experiment1\recording11\continuous\Neuropix-PXI-118.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>ch150-330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marker:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment1\recording1\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-1</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-2</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment1\recording2\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment1\recording3\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment1\recording4\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment1\recording5\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-3</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-4</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment1\recording6\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-5</t>
+  </si>
+  <si>
+    <t>TB_base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMNnocontrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LocN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-6</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-7</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment1\recording7\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment1\recording8\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>ch200-380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment2\recording1\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment2\recording2\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment2\recording3\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-8</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-9</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-10</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment2\recording4\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-11</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment2\recording5\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-12</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment2\recording6\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-13</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment2\recording7\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-14</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-15</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment2\recording8\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment2\recording9\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>ch210-380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment3\recording1\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment3\recording2\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-16</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-17</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-18</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment3\recording3\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment3\recording4\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-19</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment3\recording5\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-20</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment3\recording6\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-21</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment3\recording7\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-22</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment3\recording8\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5ZYY20240120\Block-23</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240120\Record Node 101\experiment3\recording9\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>2.2,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6,13.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1,13.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch201-380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240121\Record Node 101\experiment1\recording3\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240121\Block-1</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240121\Record Node 101\experiment1\recording4\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240121\Record Node 101\experiment1\recording5\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240121\Record Node 101\experiment1\recording6\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240121\Block-2</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240121\Block-3</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240121\Block-4</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240121\Record Node 101\experiment1\recording2\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240121\Block-5</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240121\Record Node 101\experiment1\recording7\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>marker:-2,15.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9,14.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.9,0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch201-350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC5</t>
+  </si>
+  <si>
+    <t>AC5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240121\Block-6</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240121\Block-7</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240121\Block-8</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240121\Record Node 101\experiment1\recording8\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240121\Record Node 101\experiment1\recording9\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240121\Record Node 101\experiment1\recording10\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240121\Record Node 101\experiment2\recording1\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240121\Block-9</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240121\Record Node 101\experiment2\recording2\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240121\Block-10</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240121\Block-11</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240121\Record Node 101\experiment2\recording3\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240121\Record Node 101\experiment2\recording4\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240121\Block-12</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240121\Record Node 101\experiment2\recording5\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240121\Block-13</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240121\Record Node 101\experiment2\recording6\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240121\Block-14</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240121\Block-15</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240121\Record Node 101\experiment2\recording7\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240121\Record Node 101\experiment2\recording8\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240121\Block-16</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240121\Record Node 101\experiment2\recording9\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>marker:4.3,7.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2,16.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9,8.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch1-340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123\Record Node 101\experiment1\recording2\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-1</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-2</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-3</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123\Record Node 101\experiment1\recording3\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123\Record Node 101\experiment1\recording4\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123\Record Node 101\experiment1\recording5\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-4</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-5</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-6</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123\Record Node 101\experiment1\recording6\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123\Record Node 101\experiment1\recording7\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123\Record Node 101\experiment1\recording8\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-7</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123\Record Node 101\experiment1\recording9\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>5.6,16.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3,8.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch1-380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123\Record Node 101\experiment2\recording1\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-8</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123\Record Node 101\experiment2\recording2\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-9</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123\Record Node 101\experiment2\recording3\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-10</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-11</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123\Record Node 101\experiment2\recording4\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123\Record Node 101\experiment2\recording5\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-12</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-13</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123\Record Node 101\experiment2\recording6\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123\Record Node 101\experiment2\recording7\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-14</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123\Record Node 101\experiment2\recording8\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123 (1)\Record Node 101\experiment1\recording1\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>5.9,16.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6,8.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch1-290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-15</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123 (1)\Record Node 101\experiment1\recording2\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-16</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123 (1)\Record Node 101\experiment1\recording3\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-17</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-18</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-19</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-20</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123 (1)\Record Node 101\experiment1\recording4\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123 (1)\Record Node 101\experiment1\recording5\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123 (1)\Record Node 101\experiment1\recording6\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123 (1)\Record Node 101\experiment1\recording7\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240123\Block-21</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240123 (1)\Record Node 101\experiment1\recording8\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>marker:3.4,9.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch15-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124\Record Node 101\experiment1\recording2\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-3</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-1</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-2</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124\Record Node 101\experiment1\recording3\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124\Record Node 101\experiment1\recording4\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124\Record Node 101\experiment1\recording5\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-4</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-5</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124\Record Node 101\experiment1\recording6\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124\Record Node 101\experiment1\recording7\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-6</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124\Record Node 101\experiment1\recording8\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-7</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124\Record Node 101\experiment2\recording1\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-8</t>
+  </si>
+  <si>
+    <t>ch10-120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7,15.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,15.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-9</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-10</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-11</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124\Record Node 101\experiment2\recording2\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124\Record Node 101\experiment2\recording3\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124\Record Node 101\experiment2\recording4\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-12</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124\Record Node 101\experiment2\recording5\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-13</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124\Record Node 101\experiment2\recording6\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-14</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124\Record Node 101\experiment2\recording7\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>1.6,15.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch10-88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124\Record Node 101\experiment3\recording1\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124 (1)\Record Node 101\experiment1\recording1\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-15</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-16</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-17</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124 (1)\Record Node 101\experiment1\recording2\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-18</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124 (1)\Record Node 101\experiment1\recording3\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-19</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124 (1)\Record Node 101\experiment1\recording4\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124 (2)\Record Node 101\experiment1\recording1\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240124\Block-22</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240124 (2)\Record Node 101\experiment1\recording2\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>ch10-70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240125\Record Node 101\experiment1\recording1\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240125\Record Node 101\experiment1\recording2\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240125\Block-1</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240125\Block-2</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240125\Block-3</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240125\Block-4</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240125\Record Node 101\experiment1\recording3\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240125\Record Node 101\experiment1\recording4\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240125\Record Node 101\experiment1\recording5\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240125\Record Node 101\experiment1\recording6\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240125\Record Node 101\experiment1\recording7\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>10-70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240125\Block-5</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240125\Block-6</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240125\Block-7</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240125\Block-8</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240125\Record Node 101\experiment2\recording1\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240125\Block-9</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240125\Block-10</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240125\Record Node 101\experiment2\recording2\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240125\Record Node 101\experiment2\recording3\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240125\Block-11</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240125\Block-12</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240125\Block-13</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240125\Record Node 101\experiment2\recording4\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240125\Record Node 101\experiment2\recording5\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240125\Record Node 101\experiment2\recording6\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\openEphys\Ratzyy5_20240125\Record Node 101\experiment2\recording7\continuous\Neuropix-PXI-100.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>E:\neuropixels\TDTTank\Rat5_ZYY\Rat5ZYY20240125\Block-14</t>
+  </si>
+  <si>
+    <t>电极断了换一根。下面的。通道有些坏道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2964,7 +3715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3025,6 +3776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3305,35 +4057,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B1BE7F-73A6-48FB-BA45-796FFEBC3683}">
-  <dimension ref="A1:U385"/>
+  <dimension ref="A1:U489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
-      <selection activeCell="C385" sqref="C385"/>
+    <sheetView tabSelected="1" topLeftCell="E312" workbookViewId="0">
+      <selection activeCell="T330" sqref="T330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.125" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="54.08203125" customWidth="1"/>
+    <col min="3" max="3" width="19.08203125" customWidth="1"/>
     <col min="4" max="4" width="115" customWidth="1"/>
-    <col min="5" max="6" width="6.875" style="14" customWidth="1"/>
+    <col min="5" max="6" width="6.83203125" style="14" customWidth="1"/>
     <col min="7" max="7" width="6.75" customWidth="1"/>
-    <col min="8" max="9" width="6.875" customWidth="1"/>
-    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1"/>
+    <col min="8" max="9" width="6.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="5.625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="6.875" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="5.58203125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="6.83203125" customWidth="1"/>
     <col min="17" max="17" width="8" style="6" customWidth="1"/>
-    <col min="18" max="18" width="5.625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="9.75" customWidth="1"/>
-    <col min="20" max="20" width="34.875" customWidth="1"/>
+    <col min="18" max="18" width="5.58203125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="16.5" customWidth="1"/>
+    <col min="20" max="20" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -3392,7 +4144,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3451,7 +4203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -3496,7 +4248,7 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
     </row>
-    <row r="4" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -3541,7 +4293,7 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -3586,7 +4338,7 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -3631,7 +4383,7 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -3676,7 +4428,7 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
     </row>
-    <row r="8" spans="1:19" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>1</v>
       </c>
@@ -3721,7 +4473,7 @@
       <c r="Q8" s="33"/>
       <c r="R8" s="33"/>
     </row>
-    <row r="9" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -3766,7 +4518,7 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
     </row>
-    <row r="10" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>1</v>
       </c>
@@ -3811,7 +4563,7 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>1</v>
       </c>
@@ -3856,7 +4608,7 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
     </row>
-    <row r="12" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>1</v>
       </c>
@@ -3901,7 +4653,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
     </row>
-    <row r="13" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>1</v>
       </c>
@@ -3946,7 +4698,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
     </row>
-    <row r="14" spans="1:19" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>1</v>
       </c>
@@ -3991,7 +4743,7 @@
       <c r="Q14" s="33"/>
       <c r="R14" s="33"/>
     </row>
-    <row r="15" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>1</v>
       </c>
@@ -4036,7 +4788,7 @@
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="36">
         <v>2</v>
       </c>
@@ -4077,7 +4829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="36">
         <v>2</v>
       </c>
@@ -4118,7 +4870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="36">
         <v>2</v>
       </c>
@@ -4159,7 +4911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="36">
         <v>2</v>
       </c>
@@ -4200,7 +4952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="36">
         <v>2</v>
       </c>
@@ -4241,7 +4993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="36">
         <v>2</v>
       </c>
@@ -4282,7 +5034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="36">
         <v>2</v>
       </c>
@@ -4323,7 +5075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="36">
         <v>2</v>
       </c>
@@ -4364,7 +5116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="36">
         <v>2</v>
       </c>
@@ -4405,7 +5157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="36">
         <v>2</v>
       </c>
@@ -4446,7 +5198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27">
         <v>2</v>
       </c>
@@ -4491,7 +5243,7 @@
       <c r="Q26" s="25"/>
       <c r="R26" s="25"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="39">
         <v>3</v>
       </c>
@@ -4535,7 +5287,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="39">
         <v>3</v>
       </c>
@@ -4576,7 +5328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="39">
         <v>3</v>
       </c>
@@ -4617,7 +5369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="39">
         <v>3</v>
       </c>
@@ -4661,7 +5413,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="39">
         <v>3</v>
       </c>
@@ -4702,7 +5454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="39">
         <v>3</v>
       </c>
@@ -4743,7 +5495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="39">
         <v>3</v>
       </c>
@@ -4784,7 +5536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="39">
         <v>3</v>
       </c>
@@ -4825,7 +5577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27">
         <v>3</v>
       </c>
@@ -4870,7 +5622,7 @@
       <c r="Q35" s="25"/>
       <c r="R35" s="25"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="39">
         <v>4</v>
       </c>
@@ -4914,7 +5666,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="39">
         <v>4</v>
       </c>
@@ -4955,7 +5707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="39">
         <v>4</v>
       </c>
@@ -4999,7 +5751,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="39">
         <v>4</v>
       </c>
@@ -5040,7 +5792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="39">
         <v>4</v>
       </c>
@@ -5084,7 +5836,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="39">
         <v>4</v>
       </c>
@@ -5125,7 +5877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="44">
         <v>4</v>
       </c>
@@ -5170,7 +5922,7 @@
       <c r="Q42" s="45"/>
       <c r="R42" s="45"/>
     </row>
-    <row r="43" spans="1:21" s="48" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" s="48" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="47">
         <v>4</v>
       </c>
@@ -5215,7 +5967,7 @@
       <c r="Q43" s="51"/>
       <c r="R43" s="51"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
         <v>10</v>
       </c>
@@ -5256,7 +6008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>10</v>
       </c>
@@ -5297,7 +6049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="44">
         <v>10</v>
       </c>
@@ -5344,7 +6096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="44">
         <v>10</v>
       </c>
@@ -5385,7 +6137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="44">
         <v>11</v>
       </c>
@@ -5426,7 +6178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="44">
         <v>11</v>
       </c>
@@ -5467,7 +6219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="44">
         <v>11</v>
       </c>
@@ -5508,7 +6260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="44">
         <v>11</v>
       </c>
@@ -5549,7 +6301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="44">
         <v>12</v>
       </c>
@@ -5590,7 +6342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="44">
         <v>12</v>
       </c>
@@ -5631,7 +6383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="44">
         <v>12</v>
       </c>
@@ -5672,7 +6424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="44">
         <v>12</v>
       </c>
@@ -5713,7 +6465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="44">
         <v>12</v>
       </c>
@@ -5754,7 +6506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="44">
         <v>12</v>
       </c>
@@ -5795,7 +6547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>12</v>
       </c>
@@ -5840,7 +6592,7 @@
       <c r="Q58" s="25"/>
       <c r="R58" s="25"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="44">
         <v>13</v>
       </c>
@@ -5881,7 +6633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="44">
         <v>13</v>
       </c>
@@ -5922,7 +6674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="44">
         <v>13</v>
       </c>
@@ -5969,7 +6721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="44">
         <v>13</v>
       </c>
@@ -6010,7 +6762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="44">
         <v>14</v>
       </c>
@@ -6051,7 +6803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="44">
         <v>14</v>
       </c>
@@ -6092,7 +6844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="44">
         <v>14</v>
       </c>
@@ -6133,7 +6885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="44">
         <v>14</v>
       </c>
@@ -6174,7 +6926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="44">
         <v>15</v>
       </c>
@@ -6215,7 +6967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="44">
         <v>15</v>
       </c>
@@ -6256,7 +7008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="44">
         <v>15</v>
       </c>
@@ -6297,7 +7049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="44">
         <v>15</v>
       </c>
@@ -6338,7 +7090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="24">
         <v>15</v>
       </c>
@@ -6383,7 +7135,7 @@
       <c r="Q71" s="25"/>
       <c r="R71" s="25"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="44">
         <v>16</v>
       </c>
@@ -6424,7 +7176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="44">
         <v>16</v>
       </c>
@@ -6465,7 +7217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="44">
         <v>16</v>
       </c>
@@ -6515,7 +7267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="44">
         <v>16</v>
       </c>
@@ -6556,7 +7308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="44">
         <v>17</v>
       </c>
@@ -6597,7 +7349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="44">
         <v>17</v>
       </c>
@@ -6638,7 +7390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="44">
         <v>17</v>
       </c>
@@ -6679,7 +7431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="44">
         <v>17</v>
       </c>
@@ -6720,7 +7472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="44">
         <v>18</v>
       </c>
@@ -6761,7 +7513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="44">
         <v>18</v>
       </c>
@@ -6802,7 +7554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="44">
         <v>18</v>
       </c>
@@ -6843,7 +7595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="44">
         <v>18</v>
       </c>
@@ -6884,7 +7636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="24">
         <v>18</v>
       </c>
@@ -6929,7 +7681,7 @@
       <c r="Q84" s="25"/>
       <c r="R84" s="25"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="44">
         <v>19</v>
       </c>
@@ -6970,7 +7722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="44">
         <v>19</v>
       </c>
@@ -7011,7 +7763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="44">
         <v>19</v>
       </c>
@@ -7058,7 +7810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="44">
         <v>19</v>
       </c>
@@ -7099,7 +7851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="44">
         <v>20</v>
       </c>
@@ -7140,7 +7892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="44">
         <v>20</v>
       </c>
@@ -7181,7 +7933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="44">
         <v>20</v>
       </c>
@@ -7222,7 +7974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="44">
         <v>20</v>
       </c>
@@ -7263,7 +8015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="44">
         <v>21</v>
       </c>
@@ -7304,7 +8056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="44">
         <v>21</v>
       </c>
@@ -7345,7 +8097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="44">
         <v>21</v>
       </c>
@@ -7386,7 +8138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="44">
         <v>21</v>
       </c>
@@ -7427,7 +8179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="42">
         <v>21</v>
       </c>
@@ -7472,7 +8224,7 @@
       <c r="Q97" s="45"/>
       <c r="R97" s="45"/>
     </row>
-    <row r="98" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="17">
         <v>22</v>
       </c>
@@ -7517,7 +8269,7 @@
       <c r="Q98" s="22"/>
       <c r="R98" s="22"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="44">
         <v>22</v>
       </c>
@@ -7558,7 +8310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="44">
         <v>22</v>
       </c>
@@ -7599,7 +8351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="44">
         <v>23</v>
       </c>
@@ -7640,7 +8392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="44">
         <v>23</v>
       </c>
@@ -7681,7 +8433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="44">
         <v>23</v>
       </c>
@@ -7722,7 +8474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" s="44">
         <v>24</v>
       </c>
@@ -7763,7 +8515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="44">
         <v>24</v>
       </c>
@@ -7804,7 +8556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="44">
         <v>24</v>
       </c>
@@ -7845,7 +8597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="42">
         <v>24</v>
       </c>
@@ -7890,7 +8642,7 @@
       <c r="Q107" s="45"/>
       <c r="R107" s="45"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" s="44">
         <v>24</v>
       </c>
@@ -7931,7 +8683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="24">
         <v>24</v>
       </c>
@@ -7976,7 +8728,7 @@
       <c r="Q109" s="25"/>
       <c r="R109" s="25"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="44">
         <v>25</v>
       </c>
@@ -8017,7 +8769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" s="44">
         <v>25</v>
       </c>
@@ -8058,7 +8810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" s="44">
         <v>25</v>
       </c>
@@ -8099,7 +8851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="44">
         <v>26</v>
       </c>
@@ -8140,7 +8892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="44">
         <v>26</v>
       </c>
@@ -8181,7 +8933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="44">
         <v>26</v>
       </c>
@@ -8222,7 +8974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="44">
         <v>27</v>
       </c>
@@ -8263,7 +9015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="44">
         <v>27</v>
       </c>
@@ -8304,7 +9056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="44">
         <v>27</v>
       </c>
@@ -8345,7 +9097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" s="44">
         <v>27</v>
       </c>
@@ -8386,7 +9138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" s="44">
         <v>27</v>
       </c>
@@ -8427,7 +9179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="27">
         <v>27</v>
       </c>
@@ -8472,7 +9224,7 @@
       <c r="Q121" s="25"/>
       <c r="R121" s="25"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" s="44">
         <v>28</v>
       </c>
@@ -8513,7 +9265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" s="44">
         <v>28</v>
       </c>
@@ -8554,7 +9306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" s="44">
         <v>28</v>
       </c>
@@ -8595,7 +9347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" s="44">
         <v>29</v>
       </c>
@@ -8636,7 +9388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" s="44">
         <v>29</v>
       </c>
@@ -8677,7 +9429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" s="44">
         <v>29</v>
       </c>
@@ -8718,7 +9470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" s="44">
         <v>30</v>
       </c>
@@ -8759,7 +9511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" s="44">
         <v>30</v>
       </c>
@@ -8800,7 +9552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" s="44">
         <v>30</v>
       </c>
@@ -8841,7 +9593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" s="44">
         <v>30</v>
       </c>
@@ -8882,7 +9634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" s="44">
         <v>30</v>
       </c>
@@ -8923,7 +9675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="27">
         <v>30</v>
       </c>
@@ -8968,7 +9720,7 @@
       <c r="Q133" s="25"/>
       <c r="R133" s="25"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" s="44">
         <v>31</v>
       </c>
@@ -9009,7 +9761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" s="44">
         <v>31</v>
       </c>
@@ -9050,7 +9802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" s="44">
         <v>31</v>
       </c>
@@ -9091,7 +9843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" s="44">
         <v>32</v>
       </c>
@@ -9132,7 +9884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" s="44">
         <v>32</v>
       </c>
@@ -9173,7 +9925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" s="44">
         <v>32</v>
       </c>
@@ -9214,7 +9966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" s="44">
         <v>33</v>
       </c>
@@ -9255,7 +10007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" s="44">
         <v>33</v>
       </c>
@@ -9296,7 +10048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" s="44">
         <v>33</v>
       </c>
@@ -9337,7 +10089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" s="44">
         <v>33</v>
       </c>
@@ -9378,7 +10130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" s="44">
         <v>33</v>
       </c>
@@ -9419,7 +10171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="24">
         <v>33</v>
       </c>
@@ -9464,7 +10216,7 @@
       <c r="Q145" s="25"/>
       <c r="R145" s="25"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="44">
         <v>34</v>
       </c>
@@ -9508,7 +10260,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="44">
         <v>34</v>
       </c>
@@ -9549,7 +10301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="44">
         <v>34</v>
       </c>
@@ -9590,7 +10342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="44">
         <v>35</v>
       </c>
@@ -9631,7 +10383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="44">
         <v>35</v>
       </c>
@@ -9672,7 +10424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="44">
         <v>35</v>
       </c>
@@ -9713,7 +10465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="44">
         <v>36</v>
       </c>
@@ -9754,7 +10506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="44">
         <v>36</v>
       </c>
@@ -9795,7 +10547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="44">
         <v>36</v>
       </c>
@@ -9836,7 +10588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="44">
         <v>36</v>
       </c>
@@ -9877,7 +10629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="44">
         <v>36</v>
       </c>
@@ -9918,7 +10670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="27">
         <v>36</v>
       </c>
@@ -9963,7 +10715,7 @@
       <c r="Q157" s="25"/>
       <c r="R157" s="25"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="44">
         <v>37</v>
       </c>
@@ -10004,7 +10756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="44">
         <v>37</v>
       </c>
@@ -10045,7 +10797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" s="44">
         <v>37</v>
       </c>
@@ -10086,7 +10838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="44">
         <v>38</v>
       </c>
@@ -10127,7 +10879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="44">
         <v>38</v>
       </c>
@@ -10168,7 +10920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="44">
         <v>38</v>
       </c>
@@ -10209,7 +10961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="44">
         <v>39</v>
       </c>
@@ -10250,7 +11002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="44">
         <v>39</v>
       </c>
@@ -10291,7 +11043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="44">
         <v>39</v>
       </c>
@@ -10332,7 +11084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="44">
         <v>39</v>
       </c>
@@ -10373,7 +11125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="44">
         <v>39</v>
       </c>
@@ -10414,7 +11166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="27">
         <v>39</v>
       </c>
@@ -10459,7 +11211,7 @@
       <c r="Q169" s="25"/>
       <c r="R169" s="25"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="44">
         <v>40</v>
       </c>
@@ -10503,7 +11255,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="44">
         <v>40</v>
       </c>
@@ -10544,7 +11296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="44">
         <v>40</v>
       </c>
@@ -10585,7 +11337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="44">
         <v>41</v>
       </c>
@@ -10626,7 +11378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="44">
         <v>41</v>
       </c>
@@ -10667,7 +11419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="44">
         <v>41</v>
       </c>
@@ -10708,7 +11460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="44">
         <v>42</v>
       </c>
@@ -10749,7 +11501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A177" s="44">
         <v>42</v>
       </c>
@@ -10790,7 +11542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A178" s="44">
         <v>42</v>
       </c>
@@ -10831,7 +11583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A179" s="44">
         <v>42</v>
       </c>
@@ -10872,7 +11624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180" s="44">
         <v>42</v>
       </c>
@@ -10913,7 +11665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="27">
         <v>42</v>
       </c>
@@ -10958,7 +11710,7 @@
       <c r="Q181" s="25"/>
       <c r="R181" s="25"/>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A182" s="44">
         <v>43</v>
       </c>
@@ -10999,7 +11751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A183" s="44">
         <v>43</v>
       </c>
@@ -11040,7 +11792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A184" s="44">
         <v>43</v>
       </c>
@@ -11081,7 +11833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A185" s="44">
         <v>44</v>
       </c>
@@ -11122,7 +11874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" s="44">
         <v>44</v>
       </c>
@@ -11163,7 +11915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187" s="44">
         <v>44</v>
       </c>
@@ -11204,7 +11956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188" s="44">
         <v>45</v>
       </c>
@@ -11245,7 +11997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189" s="44">
         <v>45</v>
       </c>
@@ -11286,7 +12038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A190" s="44">
         <v>45</v>
       </c>
@@ -11327,7 +12079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A191" s="44">
         <v>45</v>
       </c>
@@ -11368,7 +12120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A192" s="44">
         <v>45</v>
       </c>
@@ -11409,7 +12161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="27">
         <v>45</v>
       </c>
@@ -11454,7 +12206,7 @@
       <c r="Q193" s="25"/>
       <c r="R193" s="25"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="52"/>
       <c r="B194" t="s">
         <v>469</v>
@@ -11499,7 +12251,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>472</v>
       </c>
@@ -11543,7 +12295,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>476</v>
       </c>
@@ -11584,7 +12336,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>477</v>
       </c>
@@ -11622,7 +12374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>479</v>
       </c>
@@ -11660,7 +12412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>480</v>
       </c>
@@ -11698,7 +12450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>483</v>
       </c>
@@ -11736,7 +12488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>484</v>
       </c>
@@ -11774,7 +12526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
         <v>485</v>
       </c>
@@ -11812,7 +12564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>486</v>
       </c>
@@ -11850,7 +12602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>491</v>
       </c>
@@ -11888,7 +12640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>492</v>
       </c>
@@ -11926,7 +12678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B206" s="24" t="s">
         <v>493</v>
       </c>
@@ -11968,7 +12720,7 @@
       <c r="Q206" s="25"/>
       <c r="R206" s="25"/>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
         <v>500</v>
       </c>
@@ -12009,7 +12761,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
         <v>501</v>
       </c>
@@ -12047,7 +12799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>504</v>
       </c>
@@ -12088,7 +12840,7 @@
         <v>13312</v>
       </c>
     </row>
-    <row r="210" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
         <v>505</v>
       </c>
@@ -12126,7 +12878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
         <v>508</v>
       </c>
@@ -12164,7 +12916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>510</v>
       </c>
@@ -12202,7 +12954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
         <v>512</v>
       </c>
@@ -12240,7 +12992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
         <v>513</v>
       </c>
@@ -12278,7 +13030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
         <v>516</v>
       </c>
@@ -12316,7 +13068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
         <v>517</v>
       </c>
@@ -12354,7 +13106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
         <v>518</v>
       </c>
@@ -12392,7 +13144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>519</v>
       </c>
@@ -12430,7 +13182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B219" s="24" t="s">
         <v>520</v>
       </c>
@@ -12472,7 +13224,7 @@
       <c r="Q219" s="25"/>
       <c r="R219" s="25"/>
     </row>
-    <row r="220" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>527</v>
       </c>
@@ -12516,7 +13268,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="221" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
         <v>530</v>
       </c>
@@ -12554,7 +13306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
         <v>531</v>
       </c>
@@ -12592,7 +13344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
         <v>532</v>
       </c>
@@ -12633,7 +13385,7 @@
         <v>15974</v>
       </c>
     </row>
-    <row r="224" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
         <v>535</v>
       </c>
@@ -12671,7 +13423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>537</v>
       </c>
@@ -12709,7 +13461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
         <v>539</v>
       </c>
@@ -12747,7 +13499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
         <v>541</v>
       </c>
@@ -12785,7 +13537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>543</v>
       </c>
@@ -12823,7 +13575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
         <v>544</v>
       </c>
@@ -12861,7 +13613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
         <v>547</v>
       </c>
@@ -12899,7 +13651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
         <v>549</v>
       </c>
@@ -12937,7 +13689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B232" s="24" t="s">
         <v>550</v>
       </c>
@@ -12979,7 +13731,7 @@
       <c r="Q232" s="25"/>
       <c r="R232" s="25"/>
     </row>
-    <row r="233" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
         <v>554</v>
       </c>
@@ -13020,7 +13772,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="234" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
         <v>555</v>
       </c>
@@ -13058,7 +13810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
         <v>558</v>
       </c>
@@ -13099,7 +13851,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="236" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
         <v>557</v>
       </c>
@@ -13137,7 +13889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
         <v>564</v>
       </c>
@@ -13175,7 +13927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>562</v>
       </c>
@@ -13213,7 +13965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
         <v>567</v>
       </c>
@@ -13254,7 +14006,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="240" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
         <v>565</v>
       </c>
@@ -13295,7 +14047,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="241" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
         <v>571</v>
       </c>
@@ -13333,7 +14085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
         <v>573</v>
       </c>
@@ -13371,7 +14123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
         <v>575</v>
       </c>
@@ -13409,7 +14161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
         <v>576</v>
       </c>
@@ -13447,7 +14199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B245" s="24" t="s">
         <v>577</v>
       </c>
@@ -13489,7 +14241,7 @@
       <c r="Q245" s="25"/>
       <c r="R245" s="25"/>
     </row>
-    <row r="246" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
         <v>585</v>
       </c>
@@ -13533,7 +14285,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="247" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
         <v>586</v>
       </c>
@@ -13574,7 +14326,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="248" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
         <v>606</v>
       </c>
@@ -13615,7 +14367,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="249" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
         <v>594</v>
       </c>
@@ -13659,7 +14411,7 @@
         <v>33124</v>
       </c>
     </row>
-    <row r="250" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
         <v>588</v>
       </c>
@@ -13697,7 +14449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
         <v>593</v>
       </c>
@@ -13735,7 +14487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>602</v>
       </c>
@@ -13773,7 +14525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
         <v>596</v>
       </c>
@@ -13811,7 +14563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
         <v>599</v>
       </c>
@@ -13849,7 +14601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
         <v>601</v>
       </c>
@@ -13888,7 +14640,7 @@
       </c>
       <c r="N255" s="57"/>
     </row>
-    <row r="256" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B256" s="24" t="s">
         <v>604</v>
       </c>
@@ -13929,7 +14681,7 @@
       <c r="Q256" s="25"/>
       <c r="R256" s="25"/>
     </row>
-    <row r="257" spans="2:20" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:20" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C257" s="52" t="s">
         <v>611</v>
       </c>
@@ -13970,7 +14722,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="258" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
         <v>612</v>
       </c>
@@ -14008,7 +14760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
         <v>614</v>
       </c>
@@ -14046,7 +14798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
         <v>617</v>
       </c>
@@ -14087,7 +14839,7 @@
         <v>19769</v>
       </c>
     </row>
-    <row r="261" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
         <v>618</v>
       </c>
@@ -14126,7 +14878,7 @@
       </c>
       <c r="N261" s="57"/>
     </row>
-    <row r="262" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
         <v>621</v>
       </c>
@@ -14164,7 +14916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
         <v>622</v>
       </c>
@@ -14202,7 +14954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
         <v>625</v>
       </c>
@@ -14240,7 +14992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
         <v>626</v>
       </c>
@@ -14278,7 +15030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
         <v>629</v>
       </c>
@@ -14316,7 +15068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
         <v>631</v>
       </c>
@@ -14354,7 +15106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B268" s="24" t="s">
         <v>632</v>
       </c>
@@ -14396,7 +15148,7 @@
       <c r="Q268" s="25"/>
       <c r="R268" s="25"/>
     </row>
-    <row r="269" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C269" s="52" t="s">
         <v>611</v>
       </c>
@@ -14434,7 +15186,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="270" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
         <v>640</v>
       </c>
@@ -14472,7 +15224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
         <v>637</v>
       </c>
@@ -14513,7 +15265,7 @@
         <v>9244</v>
       </c>
     </row>
-    <row r="272" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
         <v>636</v>
       </c>
@@ -14551,7 +15303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B273" s="24" t="s">
         <v>643</v>
       </c>
@@ -14593,7 +15345,7 @@
       <c r="Q273" s="25"/>
       <c r="R273" s="25"/>
     </row>
-    <row r="274" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C274" s="52" t="s">
         <v>611</v>
       </c>
@@ -14631,7 +15383,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="275" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
         <v>648</v>
       </c>
@@ -14669,7 +15421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
         <v>646</v>
       </c>
@@ -14707,7 +15459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
         <v>652</v>
       </c>
@@ -14745,7 +15497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
         <v>650</v>
       </c>
@@ -14783,7 +15535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
         <v>655</v>
       </c>
@@ -14821,7 +15573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
         <v>657</v>
       </c>
@@ -14859,7 +15611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
         <v>659</v>
       </c>
@@ -14897,7 +15649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
         <v>661</v>
       </c>
@@ -14935,7 +15687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
         <v>663</v>
       </c>
@@ -14973,7 +15725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
         <v>665</v>
       </c>
@@ -15011,7 +15763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
         <v>667</v>
       </c>
@@ -15049,7 +15801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B286" s="24" t="s">
         <v>669</v>
       </c>
@@ -15091,7 +15843,7 @@
       <c r="Q286" s="25"/>
       <c r="R286" s="25"/>
     </row>
-    <row r="287" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C287" s="52" t="s">
         <v>611</v>
       </c>
@@ -15132,7 +15884,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="288" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
         <v>678</v>
       </c>
@@ -15176,7 +15928,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="289" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B289" t="s">
         <v>680</v>
       </c>
@@ -15214,7 +15966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B290" t="s">
         <v>682</v>
       </c>
@@ -15252,7 +16004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
         <v>684</v>
       </c>
@@ -15290,7 +16042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
         <v>686</v>
       </c>
@@ -15328,7 +16080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B293" t="s">
         <v>688</v>
       </c>
@@ -15366,7 +16118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
         <v>690</v>
       </c>
@@ -15404,7 +16156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
         <v>693</v>
       </c>
@@ -15442,7 +16194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B296" t="s">
         <v>694</v>
       </c>
@@ -15480,7 +16232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B297" s="24" t="s">
         <v>698</v>
       </c>
@@ -15522,7 +16274,7 @@
       <c r="Q297" s="25"/>
       <c r="R297" s="25"/>
     </row>
-    <row r="298" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C298" s="52" t="s">
         <v>611</v>
       </c>
@@ -15560,7 +16312,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="299" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B299" t="s">
         <v>701</v>
       </c>
@@ -15598,7 +16350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B300" t="s">
         <v>703</v>
       </c>
@@ -15636,7 +16388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B301" t="s">
         <v>705</v>
       </c>
@@ -15674,7 +16426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B302" t="s">
         <v>707</v>
       </c>
@@ -15712,7 +16464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B303" t="s">
         <v>708</v>
       </c>
@@ -15750,7 +16502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
         <v>709</v>
       </c>
@@ -15788,7 +16540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
         <v>710</v>
       </c>
@@ -15826,7 +16578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
         <v>711</v>
       </c>
@@ -15864,7 +16616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
         <v>712</v>
       </c>
@@ -15902,7 +16654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B308" s="24" t="s">
         <v>713</v>
       </c>
@@ -15944,7 +16696,7 @@
       <c r="Q308" s="25"/>
       <c r="R308" s="25"/>
     </row>
-    <row r="309" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C309" s="52" t="s">
         <v>611</v>
       </c>
@@ -15985,7 +16737,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="310" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B310" t="s">
         <v>725</v>
       </c>
@@ -16023,7 +16775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
         <v>727</v>
       </c>
@@ -16061,7 +16813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B312" t="s">
         <v>729</v>
       </c>
@@ -16099,7 +16851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
         <v>731</v>
       </c>
@@ -16137,7 +16889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
         <v>733</v>
       </c>
@@ -16175,7 +16927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
         <v>735</v>
       </c>
@@ -16213,7 +16965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B316" t="s">
         <v>738</v>
       </c>
@@ -16251,7 +17003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B317" t="s">
         <v>739</v>
       </c>
@@ -16289,7 +17041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B318" t="s">
         <v>741</v>
       </c>
@@ -16327,7 +17079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B319" s="24" t="s">
         <v>742</v>
       </c>
@@ -16369,7 +17121,7 @@
       <c r="Q319" s="25"/>
       <c r="R319" s="25"/>
     </row>
-    <row r="320" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C320" s="52" t="s">
         <v>611</v>
       </c>
@@ -16407,7 +17159,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="321" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B321" t="s">
         <v>746</v>
       </c>
@@ -16448,7 +17200,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="322" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B322" t="s">
         <v>747</v>
       </c>
@@ -16486,7 +17238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B323" t="s">
         <v>751</v>
       </c>
@@ -16524,7 +17276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B324" t="s">
         <v>753</v>
       </c>
@@ -16562,7 +17314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B325" t="s">
         <v>756</v>
       </c>
@@ -16600,7 +17352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B326" t="s">
         <v>757</v>
       </c>
@@ -16638,7 +17390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B327" t="s">
         <v>759</v>
       </c>
@@ -16676,7 +17428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B328" t="s">
         <v>760</v>
       </c>
@@ -16714,7 +17466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>762</v>
       </c>
@@ -16752,7 +17504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B330" s="24" t="s">
         <v>763</v>
       </c>
@@ -16793,8 +17545,11 @@
       <c r="O330" s="25"/>
       <c r="Q330" s="25"/>
       <c r="R330" s="25"/>
-    </row>
-    <row r="331" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T330" s="24" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="331" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C331" s="52" t="s">
         <v>611</v>
       </c>
@@ -16835,7 +17590,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="332" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>770</v>
       </c>
@@ -16876,7 +17631,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="333" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>773</v>
       </c>
@@ -16917,7 +17672,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="334" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>774</v>
       </c>
@@ -16955,7 +17710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>777</v>
       </c>
@@ -16993,7 +17748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B336" t="s">
         <v>779</v>
       </c>
@@ -17031,7 +17786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>780</v>
       </c>
@@ -17069,7 +17824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>782</v>
       </c>
@@ -17107,7 +17862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>785</v>
       </c>
@@ -17145,7 +17900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>787</v>
       </c>
@@ -17183,7 +17938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B341" s="24" t="s">
         <v>789</v>
       </c>
@@ -17225,7 +17980,7 @@
       <c r="Q341" s="25"/>
       <c r="R341" s="25"/>
     </row>
-    <row r="342" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C342" s="52" t="s">
         <v>611</v>
       </c>
@@ -17263,7 +18018,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="343" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
         <v>795</v>
       </c>
@@ -17304,7 +18059,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="344" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
         <v>796</v>
       </c>
@@ -17342,7 +18097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B345" t="s">
         <v>798</v>
       </c>
@@ -17380,7 +18135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>800</v>
       </c>
@@ -17418,7 +18173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
         <v>801</v>
       </c>
@@ -17456,7 +18211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>805</v>
       </c>
@@ -17494,7 +18249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>806</v>
       </c>
@@ -17532,7 +18287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>808</v>
       </c>
@@ -17570,7 +18325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>811</v>
       </c>
@@ -17608,7 +18363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B352" s="24" t="s">
         <v>812</v>
       </c>
@@ -17650,7 +18405,7 @@
       <c r="Q352" s="25"/>
       <c r="R352" s="25"/>
     </row>
-    <row r="353" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C353" s="52" t="s">
         <v>611</v>
       </c>
@@ -17688,7 +18443,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="354" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>818</v>
       </c>
@@ -17729,7 +18484,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="355" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>822</v>
       </c>
@@ -17770,7 +18525,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="356" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>823</v>
       </c>
@@ -17808,7 +18563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B357" t="s">
         <v>824</v>
       </c>
@@ -17846,7 +18601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>826</v>
       </c>
@@ -17884,7 +18639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>828</v>
       </c>
@@ -17922,7 +18677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B360" t="s">
         <v>831</v>
       </c>
@@ -17960,7 +18715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>832</v>
       </c>
@@ -17998,7 +18753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B362" t="s">
         <v>834</v>
       </c>
@@ -18036,7 +18791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B363" s="24" t="s">
         <v>836</v>
       </c>
@@ -18078,7 +18833,7 @@
       <c r="Q363" s="25"/>
       <c r="R363" s="25"/>
     </row>
-    <row r="364" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C364" s="52" t="s">
         <v>611</v>
       </c>
@@ -18113,7 +18868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B365" t="s">
         <v>843</v>
       </c>
@@ -18157,7 +18912,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="366" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>844</v>
       </c>
@@ -18195,7 +18950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="367" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B367" t="s">
         <v>846</v>
       </c>
@@ -18233,7 +18988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B368" t="s">
         <v>848</v>
       </c>
@@ -18271,7 +19026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B369" t="s">
         <v>849</v>
       </c>
@@ -18309,7 +19064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B370" t="s">
         <v>851</v>
       </c>
@@ -18347,7 +19102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B371" t="s">
         <v>853</v>
       </c>
@@ -18385,7 +19140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B372" t="s">
         <v>854</v>
       </c>
@@ -18423,7 +19178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B373" t="s">
         <v>856</v>
       </c>
@@ -18461,7 +19216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B374" s="24" t="s">
         <v>857</v>
       </c>
@@ -18503,7 +19258,7 @@
       <c r="Q374" s="25"/>
       <c r="R374" s="25"/>
     </row>
-    <row r="375" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C375" s="52" t="s">
         <v>611</v>
       </c>
@@ -18544,7 +19299,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="376" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B376" t="s">
         <v>870</v>
       </c>
@@ -18582,7 +19337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="377" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B377" t="s">
         <v>871</v>
       </c>
@@ -18623,7 +19378,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="378" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B378" t="s">
         <v>872</v>
       </c>
@@ -18664,7 +19419,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="379" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B379" t="s">
         <v>875</v>
       </c>
@@ -18702,7 +19457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B380" t="s">
         <v>877</v>
       </c>
@@ -18740,7 +19495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B381" t="s">
         <v>878</v>
       </c>
@@ -18778,7 +19533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="382" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B382" t="s">
         <v>880</v>
       </c>
@@ -18816,7 +19571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B383" t="s">
         <v>883</v>
       </c>
@@ -18854,7 +19609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B384" t="s">
         <v>885</v>
       </c>
@@ -18892,14 +19647,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B385" t="s">
+    <row r="385" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B385" s="24" t="s">
         <v>886</v>
       </c>
       <c r="C385" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D385" s="24" t="s">
         <v>887</v>
       </c>
       <c r="E385" s="26" t="s">
@@ -18908,10 +19663,10 @@
       <c r="F385" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G385" s="44" t="s">
+      <c r="G385" s="27" t="s">
         <v>864</v>
       </c>
-      <c r="H385" s="58">
+      <c r="H385" s="59">
         <v>7700</v>
       </c>
       <c r="I385" s="24">
@@ -18929,6 +19684,4117 @@
       <c r="M385" s="27" t="s">
         <v>9</v>
       </c>
+      <c r="N385" s="28"/>
+      <c r="O385" s="25"/>
+      <c r="Q385" s="25"/>
+      <c r="R385" s="25"/>
+    </row>
+    <row r="386" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C386" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D386" t="s">
+        <v>890</v>
+      </c>
+      <c r="E386" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F386" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G386" s="44" t="s">
+        <v>471</v>
+      </c>
+      <c r="H386" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I386">
+        <v>0</v>
+      </c>
+      <c r="J386">
+        <v>0</v>
+      </c>
+      <c r="K386">
+        <v>0</v>
+      </c>
+      <c r="L386" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M386" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S386" t="s">
+        <v>497</v>
+      </c>
+      <c r="T386" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="387" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B387" t="s">
+        <v>891</v>
+      </c>
+      <c r="C387" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D387" t="s">
+        <v>893</v>
+      </c>
+      <c r="E387" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F387" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G387" s="44" t="s">
+        <v>471</v>
+      </c>
+      <c r="H387" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>0</v>
+      </c>
+      <c r="K387">
+        <v>0</v>
+      </c>
+      <c r="L387" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M387" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T387" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="388" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B388" t="s">
+        <v>892</v>
+      </c>
+      <c r="C388" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D388" t="s">
+        <v>894</v>
+      </c>
+      <c r="E388" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F388" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G388" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H388" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
+      <c r="K388">
+        <v>0</v>
+      </c>
+      <c r="L388" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M388" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T388" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="389" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C389" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="E389" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F389" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G389" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H389" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I389">
+        <v>0</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+      <c r="K389">
+        <v>0</v>
+      </c>
+      <c r="L389" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M389" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="390" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B390" t="s">
+        <v>897</v>
+      </c>
+      <c r="C390" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D390" t="s">
+        <v>895</v>
+      </c>
+      <c r="E390" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F390" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G390" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H390" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I390">
+        <v>0</v>
+      </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
+      <c r="K390">
+        <v>0</v>
+      </c>
+      <c r="L390" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M390" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="391" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B391" t="s">
+        <v>898</v>
+      </c>
+      <c r="C391" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D391" t="s">
+        <v>896</v>
+      </c>
+      <c r="E391" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F391" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G391" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H391" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>0</v>
+      </c>
+      <c r="L391" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M391" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="N391" s="9" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="392" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B392" t="s">
+        <v>900</v>
+      </c>
+      <c r="C392" s="52" t="s">
+        <v>901</v>
+      </c>
+      <c r="D392" t="s">
+        <v>899</v>
+      </c>
+      <c r="E392" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F392" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G392" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H392" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I392">
+        <v>0</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+      <c r="K392">
+        <v>0</v>
+      </c>
+      <c r="L392" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M392" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="393" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B393" t="s">
+        <v>904</v>
+      </c>
+      <c r="C393" s="52" t="s">
+        <v>902</v>
+      </c>
+      <c r="D393" t="s">
+        <v>906</v>
+      </c>
+      <c r="E393" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F393" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G393" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H393" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I393">
+        <v>0</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+      <c r="K393">
+        <v>0</v>
+      </c>
+      <c r="L393" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M393" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="394" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B394" s="24" t="s">
+        <v>905</v>
+      </c>
+      <c r="C394" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="D394" s="24" t="s">
+        <v>907</v>
+      </c>
+      <c r="E394" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F394" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G394" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H394" s="24">
+        <v>3800</v>
+      </c>
+      <c r="I394" s="24">
+        <v>0</v>
+      </c>
+      <c r="J394" s="24">
+        <v>0</v>
+      </c>
+      <c r="K394" s="24">
+        <v>0</v>
+      </c>
+      <c r="L394" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M394" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N394" s="28"/>
+      <c r="O394" s="25"/>
+      <c r="Q394" s="25"/>
+      <c r="R394" s="25"/>
+    </row>
+    <row r="395" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C395" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D395" t="s">
+        <v>909</v>
+      </c>
+      <c r="E395" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F395" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G395" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H395" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I395">
+        <v>0</v>
+      </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
+      <c r="K395">
+        <v>0</v>
+      </c>
+      <c r="L395" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M395" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T395" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="396" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B396" t="s">
+        <v>912</v>
+      </c>
+      <c r="C396" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D396" t="s">
+        <v>910</v>
+      </c>
+      <c r="E396" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F396" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G396" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="H396" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I396">
+        <v>0</v>
+      </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
+      <c r="K396">
+        <v>0</v>
+      </c>
+      <c r="L396" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M396" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T396" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="397" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B397" t="s">
+        <v>913</v>
+      </c>
+      <c r="C397" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D397" t="s">
+        <v>911</v>
+      </c>
+      <c r="E397" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F397" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G397" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H397" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I397">
+        <v>0</v>
+      </c>
+      <c r="J397">
+        <v>0</v>
+      </c>
+      <c r="K397">
+        <v>0</v>
+      </c>
+      <c r="L397" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M397" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="N397" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="T397">
+        <v>19169</v>
+      </c>
+    </row>
+    <row r="398" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B398" t="s">
+        <v>914</v>
+      </c>
+      <c r="C398" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D398" t="s">
+        <v>915</v>
+      </c>
+      <c r="E398" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F398" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G398" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H398" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I398">
+        <v>0</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+      <c r="K398">
+        <v>0</v>
+      </c>
+      <c r="L398" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M398" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="399" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B399" t="s">
+        <v>916</v>
+      </c>
+      <c r="C399" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D399" t="s">
+        <v>917</v>
+      </c>
+      <c r="E399" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F399" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G399" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H399" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I399">
+        <v>0</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+      <c r="K399">
+        <v>0</v>
+      </c>
+      <c r="L399" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M399" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="400" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B400" t="s">
+        <v>918</v>
+      </c>
+      <c r="C400" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D400" t="s">
+        <v>919</v>
+      </c>
+      <c r="E400" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F400" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G400" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H400" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I400">
+        <v>0</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400">
+        <v>0</v>
+      </c>
+      <c r="L400" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M400" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="401" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B401" t="s">
+        <v>920</v>
+      </c>
+      <c r="C401" s="52" t="s">
+        <v>901</v>
+      </c>
+      <c r="D401" t="s">
+        <v>921</v>
+      </c>
+      <c r="E401" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F401" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G401" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H401" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I401">
+        <v>0</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401">
+        <v>0</v>
+      </c>
+      <c r="L401" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M401" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="402" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B402" t="s">
+        <v>922</v>
+      </c>
+      <c r="C402" s="52" t="s">
+        <v>902</v>
+      </c>
+      <c r="D402" t="s">
+        <v>924</v>
+      </c>
+      <c r="E402" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F402" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G402" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H402" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I402">
+        <v>0</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="K402">
+        <v>0</v>
+      </c>
+      <c r="L402" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M402" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="403" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B403" s="24" t="s">
+        <v>923</v>
+      </c>
+      <c r="C403" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="D403" s="24" t="s">
+        <v>925</v>
+      </c>
+      <c r="E403" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F403" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G403" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H403" s="24">
+        <v>3800</v>
+      </c>
+      <c r="I403" s="24">
+        <v>0</v>
+      </c>
+      <c r="J403" s="24">
+        <v>0</v>
+      </c>
+      <c r="K403" s="24">
+        <v>0</v>
+      </c>
+      <c r="L403" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M403" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N403" s="28"/>
+      <c r="O403" s="25"/>
+      <c r="Q403" s="25"/>
+      <c r="R403" s="25"/>
+    </row>
+    <row r="404" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C404" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D404" t="s">
+        <v>927</v>
+      </c>
+      <c r="E404" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F404" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G404" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H404" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I404">
+        <v>0</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404">
+        <v>0</v>
+      </c>
+      <c r="L404" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M404" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T404" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="405" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B405" t="s">
+        <v>929</v>
+      </c>
+      <c r="C405" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D405" t="s">
+        <v>928</v>
+      </c>
+      <c r="E405" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F405" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G405" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="H405" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I405">
+        <v>0</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="K405">
+        <v>0</v>
+      </c>
+      <c r="L405" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M405" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T405" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="406" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B406" t="s">
+        <v>930</v>
+      </c>
+      <c r="C406" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D406" t="s">
+        <v>932</v>
+      </c>
+      <c r="E406" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F406" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G406" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="H406" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <v>0</v>
+      </c>
+      <c r="L406" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M406" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="N406" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="T406">
+        <v>13312</v>
+      </c>
+    </row>
+    <row r="407" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B407" t="s">
+        <v>931</v>
+      </c>
+      <c r="C407" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D407" t="s">
+        <v>933</v>
+      </c>
+      <c r="E407" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F407" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G407" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="H407" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I407">
+        <v>0</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="K407">
+        <v>0</v>
+      </c>
+      <c r="L407" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M407" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="408" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B408" t="s">
+        <v>934</v>
+      </c>
+      <c r="C408" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D408" t="s">
+        <v>935</v>
+      </c>
+      <c r="E408" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F408" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G408" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="H408" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408">
+        <v>0</v>
+      </c>
+      <c r="L408" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M408" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="409" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B409" t="s">
+        <v>936</v>
+      </c>
+      <c r="C409" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D409" t="s">
+        <v>937</v>
+      </c>
+      <c r="E409" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F409" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G409" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="H409" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I409">
+        <v>0</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="K409">
+        <v>0</v>
+      </c>
+      <c r="L409" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M409" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="410" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B410" t="s">
+        <v>938</v>
+      </c>
+      <c r="C410" s="52" t="s">
+        <v>901</v>
+      </c>
+      <c r="D410" t="s">
+        <v>939</v>
+      </c>
+      <c r="E410" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F410" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G410" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="H410" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I410">
+        <v>0</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410">
+        <v>0</v>
+      </c>
+      <c r="L410" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M410" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="411" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B411" t="s">
+        <v>940</v>
+      </c>
+      <c r="C411" s="52" t="s">
+        <v>902</v>
+      </c>
+      <c r="D411" t="s">
+        <v>941</v>
+      </c>
+      <c r="E411" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F411" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G411" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="H411" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I411">
+        <v>0</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+      <c r="K411">
+        <v>0</v>
+      </c>
+      <c r="L411" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M411" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="412" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B412" s="24" t="s">
+        <v>942</v>
+      </c>
+      <c r="C412" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="D412" s="24" t="s">
+        <v>943</v>
+      </c>
+      <c r="E412" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F412" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G412" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="H412" s="24">
+        <v>3800</v>
+      </c>
+      <c r="I412" s="24">
+        <v>0</v>
+      </c>
+      <c r="J412" s="24">
+        <v>0</v>
+      </c>
+      <c r="K412" s="24">
+        <v>0</v>
+      </c>
+      <c r="L412" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M412" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N412" s="28"/>
+      <c r="O412" s="25"/>
+      <c r="Q412" s="25"/>
+      <c r="R412" s="25"/>
+    </row>
+    <row r="413" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C413" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D413" t="s">
+        <v>956</v>
+      </c>
+      <c r="E413" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F413" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G413" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="H413" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I413">
+        <v>0</v>
+      </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
+      <c r="K413">
+        <v>0</v>
+      </c>
+      <c r="L413" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M413" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S413" s="60" t="s">
+        <v>959</v>
+      </c>
+      <c r="T413" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="414" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B414" t="s">
+        <v>949</v>
+      </c>
+      <c r="C414" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D414" t="s">
+        <v>948</v>
+      </c>
+      <c r="E414" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F414" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G414" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="H414" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I414">
+        <v>0</v>
+      </c>
+      <c r="J414">
+        <v>0</v>
+      </c>
+      <c r="K414">
+        <v>0</v>
+      </c>
+      <c r="L414" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M414" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S414" t="s">
+        <v>963</v>
+      </c>
+      <c r="T414" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="415" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B415" t="s">
+        <v>953</v>
+      </c>
+      <c r="C415" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D415" t="s">
+        <v>950</v>
+      </c>
+      <c r="E415" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F415" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G415" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="H415" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I415">
+        <v>0</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+      <c r="K415">
+        <v>0</v>
+      </c>
+      <c r="L415" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M415" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="N415" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="T415">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="416" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B416" t="s">
+        <v>954</v>
+      </c>
+      <c r="C416" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D416" t="s">
+        <v>951</v>
+      </c>
+      <c r="E416" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F416" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G416" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="H416" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I416">
+        <v>0</v>
+      </c>
+      <c r="J416">
+        <v>0</v>
+      </c>
+      <c r="K416">
+        <v>0</v>
+      </c>
+      <c r="L416" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M416" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="417" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B417" t="s">
+        <v>955</v>
+      </c>
+      <c r="C417" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D417" t="s">
+        <v>952</v>
+      </c>
+      <c r="E417" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F417" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G417" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="H417" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I417">
+        <v>0</v>
+      </c>
+      <c r="J417">
+        <v>0</v>
+      </c>
+      <c r="K417">
+        <v>0</v>
+      </c>
+      <c r="L417" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M417" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="418" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B418" t="s">
+        <v>957</v>
+      </c>
+      <c r="C418" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D418" t="s">
+        <v>958</v>
+      </c>
+      <c r="E418" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F418" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G418" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="H418" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I418">
+        <v>0</v>
+      </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
+      <c r="K418">
+        <v>0</v>
+      </c>
+      <c r="L418" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M418" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="419" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B419" t="s">
+        <v>967</v>
+      </c>
+      <c r="C419" s="52" t="s">
+        <v>902</v>
+      </c>
+      <c r="D419" t="s">
+        <v>970</v>
+      </c>
+      <c r="E419" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F419" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G419" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="H419" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I419">
+        <v>0</v>
+      </c>
+      <c r="J419">
+        <v>0</v>
+      </c>
+      <c r="K419">
+        <v>0</v>
+      </c>
+      <c r="L419" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M419" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="420" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B420" t="s">
+        <v>968</v>
+      </c>
+      <c r="C420" s="52" t="s">
+        <v>901</v>
+      </c>
+      <c r="D420" t="s">
+        <v>971</v>
+      </c>
+      <c r="E420" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F420" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G420" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="H420" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I420">
+        <v>0</v>
+      </c>
+      <c r="J420">
+        <v>0</v>
+      </c>
+      <c r="K420">
+        <v>0</v>
+      </c>
+      <c r="L420" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M420" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="421" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B421" s="24" t="s">
+        <v>969</v>
+      </c>
+      <c r="C421" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="D421" s="24" t="s">
+        <v>972</v>
+      </c>
+      <c r="E421" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F421" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G421" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="H421" s="24">
+        <v>3800</v>
+      </c>
+      <c r="I421" s="24">
+        <v>0</v>
+      </c>
+      <c r="J421" s="24">
+        <v>0</v>
+      </c>
+      <c r="K421" s="24">
+        <v>0</v>
+      </c>
+      <c r="L421" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M421" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N421" s="28"/>
+      <c r="O421" s="25"/>
+      <c r="Q421" s="25"/>
+      <c r="R421" s="25"/>
+    </row>
+    <row r="422" spans="2:20" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C422" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D422" s="56" t="s">
+        <v>973</v>
+      </c>
+      <c r="E422" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F422" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G422" s="52" t="s">
+        <v>966</v>
+      </c>
+      <c r="H422" s="56">
+        <v>3800</v>
+      </c>
+      <c r="I422" s="56">
+        <v>0</v>
+      </c>
+      <c r="J422" s="56">
+        <v>0</v>
+      </c>
+      <c r="K422" s="56">
+        <v>0</v>
+      </c>
+      <c r="L422" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M422" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="N422" s="57"/>
+      <c r="O422" s="54"/>
+      <c r="Q422" s="54"/>
+      <c r="R422" s="54"/>
+      <c r="S422" s="56" t="s">
+        <v>961</v>
+      </c>
+      <c r="T422" s="56" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="423" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B423" t="s">
+        <v>974</v>
+      </c>
+      <c r="C423" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D423" t="s">
+        <v>975</v>
+      </c>
+      <c r="E423" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F423" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G423" s="52" t="s">
+        <v>966</v>
+      </c>
+      <c r="H423" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I423">
+        <v>0</v>
+      </c>
+      <c r="J423">
+        <v>0</v>
+      </c>
+      <c r="K423">
+        <v>0</v>
+      </c>
+      <c r="L423" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M423" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T423" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="424" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B424" t="s">
+        <v>976</v>
+      </c>
+      <c r="C424" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D424" t="s">
+        <v>978</v>
+      </c>
+      <c r="E424" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F424" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G424" s="52" t="s">
+        <v>965</v>
+      </c>
+      <c r="H424" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I424">
+        <v>0</v>
+      </c>
+      <c r="J424">
+        <v>0</v>
+      </c>
+      <c r="K424">
+        <v>0</v>
+      </c>
+      <c r="L424" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M424" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="N424" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="T424">
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="425" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B425" t="s">
+        <v>977</v>
+      </c>
+      <c r="C425" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D425" t="s">
+        <v>979</v>
+      </c>
+      <c r="E425" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F425" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G425" s="52" t="s">
+        <v>965</v>
+      </c>
+      <c r="H425" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I425">
+        <v>0</v>
+      </c>
+      <c r="J425">
+        <v>0</v>
+      </c>
+      <c r="K425">
+        <v>0</v>
+      </c>
+      <c r="L425" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M425" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="426" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B426" t="s">
+        <v>980</v>
+      </c>
+      <c r="C426" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D426" t="s">
+        <v>981</v>
+      </c>
+      <c r="E426" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F426" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G426" s="52" t="s">
+        <v>965</v>
+      </c>
+      <c r="H426" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I426">
+        <v>0</v>
+      </c>
+      <c r="J426">
+        <v>0</v>
+      </c>
+      <c r="K426">
+        <v>0</v>
+      </c>
+      <c r="L426" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M426" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B427" t="s">
+        <v>982</v>
+      </c>
+      <c r="C427" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D427" t="s">
+        <v>983</v>
+      </c>
+      <c r="E427" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F427" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G427" s="52" t="s">
+        <v>965</v>
+      </c>
+      <c r="H427" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I427">
+        <v>0</v>
+      </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
+      <c r="K427">
+        <v>0</v>
+      </c>
+      <c r="L427" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M427" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="428" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B428" t="s">
+        <v>984</v>
+      </c>
+      <c r="C428" s="52" t="s">
+        <v>902</v>
+      </c>
+      <c r="D428" t="s">
+        <v>986</v>
+      </c>
+      <c r="E428" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F428" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G428" s="52" t="s">
+        <v>965</v>
+      </c>
+      <c r="H428" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I428">
+        <v>0</v>
+      </c>
+      <c r="J428">
+        <v>0</v>
+      </c>
+      <c r="K428">
+        <v>0</v>
+      </c>
+      <c r="L428" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M428" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="429" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B429" t="s">
+        <v>985</v>
+      </c>
+      <c r="C429" s="52" t="s">
+        <v>901</v>
+      </c>
+      <c r="D429" t="s">
+        <v>987</v>
+      </c>
+      <c r="E429" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F429" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G429" s="52" t="s">
+        <v>965</v>
+      </c>
+      <c r="H429" s="42">
+        <v>3800</v>
+      </c>
+      <c r="I429">
+        <v>0</v>
+      </c>
+      <c r="J429">
+        <v>0</v>
+      </c>
+      <c r="K429">
+        <v>0</v>
+      </c>
+      <c r="L429" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M429" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="430" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B430" s="24" t="s">
+        <v>988</v>
+      </c>
+      <c r="C430" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="D430" s="24" t="s">
+        <v>989</v>
+      </c>
+      <c r="E430" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F430" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G430" s="27" t="s">
+        <v>965</v>
+      </c>
+      <c r="H430" s="24">
+        <v>3800</v>
+      </c>
+      <c r="I430" s="24">
+        <v>0</v>
+      </c>
+      <c r="J430" s="24">
+        <v>0</v>
+      </c>
+      <c r="K430" s="24">
+        <v>0</v>
+      </c>
+      <c r="L430" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M430" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N430" s="28"/>
+      <c r="O430" s="25"/>
+      <c r="Q430" s="25"/>
+      <c r="R430" s="25"/>
+    </row>
+    <row r="431" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C431" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D431" t="s">
+        <v>994</v>
+      </c>
+      <c r="E431" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F431" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G431" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="H431" s="56">
+        <v>6800</v>
+      </c>
+      <c r="I431" s="56">
+        <v>0</v>
+      </c>
+      <c r="J431" s="56">
+        <v>0</v>
+      </c>
+      <c r="K431" s="56">
+        <v>0</v>
+      </c>
+      <c r="L431" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M431" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="S431" t="s">
+        <v>991</v>
+      </c>
+      <c r="T431" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="432" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B432" t="s">
+        <v>995</v>
+      </c>
+      <c r="C432" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D432" t="s">
+        <v>998</v>
+      </c>
+      <c r="E432" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F432" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G432" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="H432" s="42">
+        <v>6800</v>
+      </c>
+      <c r="I432">
+        <v>0</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
+      <c r="K432">
+        <v>0</v>
+      </c>
+      <c r="L432" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M432" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S432" t="s">
+        <v>992</v>
+      </c>
+      <c r="T432" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="433" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B433" t="s">
+        <v>996</v>
+      </c>
+      <c r="C433" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D433" t="s">
+        <v>999</v>
+      </c>
+      <c r="E433" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F433" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G433" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="H433" s="56">
+        <v>6800</v>
+      </c>
+      <c r="I433">
+        <v>0</v>
+      </c>
+      <c r="J433">
+        <v>0</v>
+      </c>
+      <c r="K433">
+        <v>0</v>
+      </c>
+      <c r="L433" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M433" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="434" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B434" t="s">
+        <v>997</v>
+      </c>
+      <c r="C434" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E434" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F434" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G434" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="H434" s="56">
+        <v>6800</v>
+      </c>
+      <c r="I434">
+        <v>0</v>
+      </c>
+      <c r="J434">
+        <v>0</v>
+      </c>
+      <c r="K434">
+        <v>0</v>
+      </c>
+      <c r="L434" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M434" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="435" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B435" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C435" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E435" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F435" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G435" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="H435" s="42">
+        <v>6800</v>
+      </c>
+      <c r="I435">
+        <v>0</v>
+      </c>
+      <c r="J435">
+        <v>0</v>
+      </c>
+      <c r="K435">
+        <v>0</v>
+      </c>
+      <c r="L435" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M435" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="436" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B436" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C436" s="52" t="s">
+        <v>902</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E436" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F436" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G436" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="H436" s="56">
+        <v>6800</v>
+      </c>
+      <c r="I436">
+        <v>0</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="K436">
+        <v>0</v>
+      </c>
+      <c r="L436" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M436" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="437" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B437" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C437" s="52" t="s">
+        <v>901</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E437" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F437" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G437" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="H437" s="42">
+        <v>6800</v>
+      </c>
+      <c r="I437">
+        <v>0</v>
+      </c>
+      <c r="J437">
+        <v>0</v>
+      </c>
+      <c r="K437">
+        <v>0</v>
+      </c>
+      <c r="L437" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M437" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="438" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B438" s="24" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C438" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="D438" s="24" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E438" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F438" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G438" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H438" s="24">
+        <v>6800</v>
+      </c>
+      <c r="I438" s="24">
+        <v>0</v>
+      </c>
+      <c r="J438" s="24">
+        <v>0</v>
+      </c>
+      <c r="K438" s="24">
+        <v>0</v>
+      </c>
+      <c r="L438" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M438" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N438" s="28"/>
+      <c r="O438" s="25"/>
+      <c r="Q438" s="25"/>
+      <c r="R438" s="25"/>
+    </row>
+    <row r="439" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C439" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E439" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F439" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G439" s="52" t="s">
+        <v>464</v>
+      </c>
+      <c r="H439" s="56">
+        <v>7500</v>
+      </c>
+      <c r="I439" s="56">
+        <v>0</v>
+      </c>
+      <c r="J439" s="56">
+        <v>0</v>
+      </c>
+      <c r="K439" s="56">
+        <v>0</v>
+      </c>
+      <c r="L439" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M439" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="S439" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="440" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B440" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C440" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E440" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F440" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G440" s="52" t="s">
+        <v>464</v>
+      </c>
+      <c r="H440" s="42">
+        <v>7500</v>
+      </c>
+      <c r="I440">
+        <v>0</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+      <c r="K440">
+        <v>0</v>
+      </c>
+      <c r="L440" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M440" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S440" t="s">
+        <v>1010</v>
+      </c>
+      <c r="T440" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="441" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B441" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C441" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E441" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F441" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G441" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="H441" s="56">
+        <v>7500</v>
+      </c>
+      <c r="I441">
+        <v>0</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+      <c r="K441">
+        <v>0</v>
+      </c>
+      <c r="L441" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M441" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="442" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B442" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C442" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E442" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F442" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G442" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="H442" s="42">
+        <v>7500</v>
+      </c>
+      <c r="I442">
+        <v>0</v>
+      </c>
+      <c r="J442">
+        <v>0</v>
+      </c>
+      <c r="K442">
+        <v>0</v>
+      </c>
+      <c r="L442" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M442" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="443" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B443" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C443" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E443" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F443" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G443" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="H443" s="56">
+        <v>7500</v>
+      </c>
+      <c r="I443">
+        <v>0</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="K443">
+        <v>0</v>
+      </c>
+      <c r="L443" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M443" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="444" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B444" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C444" s="52" t="s">
+        <v>902</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E444" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F444" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G444" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="H444" s="42">
+        <v>7500</v>
+      </c>
+      <c r="I444">
+        <v>0</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+      <c r="K444">
+        <v>0</v>
+      </c>
+      <c r="L444" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M444" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="445" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B445" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C445" s="52" t="s">
+        <v>901</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E445" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F445" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G445" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="H445" s="56">
+        <v>7500</v>
+      </c>
+      <c r="I445">
+        <v>0</v>
+      </c>
+      <c r="J445">
+        <v>0</v>
+      </c>
+      <c r="K445">
+        <v>0</v>
+      </c>
+      <c r="L445" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M445" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="446" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B446" s="24" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C446" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="D446" s="24" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E446" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F446" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G446" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="H446" s="24">
+        <v>7500</v>
+      </c>
+      <c r="I446" s="24">
+        <v>0</v>
+      </c>
+      <c r="J446" s="24">
+        <v>0</v>
+      </c>
+      <c r="K446" s="24">
+        <v>0</v>
+      </c>
+      <c r="L446" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M446" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N446" s="28"/>
+      <c r="O446" s="25"/>
+      <c r="Q446" s="25"/>
+      <c r="R446" s="25"/>
+    </row>
+    <row r="447" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C447" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E447" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F447" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G447" s="52" t="s">
+        <v>466</v>
+      </c>
+      <c r="H447" s="56">
+        <v>7300</v>
+      </c>
+      <c r="I447" s="56">
+        <v>0</v>
+      </c>
+      <c r="J447" s="56">
+        <v>0</v>
+      </c>
+      <c r="K447" s="56">
+        <v>0</v>
+      </c>
+      <c r="L447" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M447" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="S447" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="448" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B448" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C448" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E448" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F448" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G448" s="52" t="s">
+        <v>466</v>
+      </c>
+      <c r="H448" s="42">
+        <v>7300</v>
+      </c>
+      <c r="I448">
+        <v>0</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="K448">
+        <v>0</v>
+      </c>
+      <c r="L448" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M448" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S448" t="s">
+        <v>1029</v>
+      </c>
+      <c r="T448" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="449" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B449" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C449" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E449" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F449" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G449" s="52" t="s">
+        <v>465</v>
+      </c>
+      <c r="H449" s="56">
+        <v>7300</v>
+      </c>
+      <c r="I449">
+        <v>0</v>
+      </c>
+      <c r="J449">
+        <v>0</v>
+      </c>
+      <c r="K449">
+        <v>0</v>
+      </c>
+      <c r="L449" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M449" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="450" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B450" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C450" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E450" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F450" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G450" s="52" t="s">
+        <v>465</v>
+      </c>
+      <c r="H450" s="42">
+        <v>7300</v>
+      </c>
+      <c r="I450">
+        <v>0</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="K450">
+        <v>0</v>
+      </c>
+      <c r="L450" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M450" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="451" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B451" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C451" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E451" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F451" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G451" s="52" t="s">
+        <v>465</v>
+      </c>
+      <c r="H451" s="56">
+        <v>7300</v>
+      </c>
+      <c r="I451">
+        <v>0</v>
+      </c>
+      <c r="J451">
+        <v>0</v>
+      </c>
+      <c r="K451">
+        <v>0</v>
+      </c>
+      <c r="L451" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M451" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="452" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B452" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C452" s="52" t="s">
+        <v>902</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E452" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F452" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G452" s="52" t="s">
+        <v>465</v>
+      </c>
+      <c r="H452" s="42">
+        <v>7300</v>
+      </c>
+      <c r="I452">
+        <v>0</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="K452">
+        <v>0</v>
+      </c>
+      <c r="L452" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M452" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="453" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B453" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C453" s="52" t="s">
+        <v>901</v>
+      </c>
+      <c r="D453" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E453" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F453" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G453" s="52" t="s">
+        <v>465</v>
+      </c>
+      <c r="H453" s="56">
+        <v>7300</v>
+      </c>
+      <c r="I453">
+        <v>0</v>
+      </c>
+      <c r="J453">
+        <v>0</v>
+      </c>
+      <c r="K453">
+        <v>0</v>
+      </c>
+      <c r="L453" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M453" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="454" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B454" s="24" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C454" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="D454" s="24" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E454" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F454" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G454" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="H454" s="24">
+        <v>7300</v>
+      </c>
+      <c r="I454" s="24">
+        <v>0</v>
+      </c>
+      <c r="J454" s="24">
+        <v>0</v>
+      </c>
+      <c r="K454" s="24">
+        <v>0</v>
+      </c>
+      <c r="L454" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M454" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N454" s="28"/>
+      <c r="O454" s="25"/>
+      <c r="Q454" s="25"/>
+      <c r="R454" s="25"/>
+    </row>
+    <row r="455" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B455" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C455" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E455" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F455" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G455" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="H455" s="56">
+        <v>7800</v>
+      </c>
+      <c r="I455" s="56">
+        <v>0</v>
+      </c>
+      <c r="J455" s="56">
+        <v>0</v>
+      </c>
+      <c r="K455" s="56">
+        <v>0</v>
+      </c>
+      <c r="L455" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M455" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="S455" t="s">
+        <v>1065</v>
+      </c>
+      <c r="T455" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="456" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B456" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C456" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E456" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F456" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G456" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="H456" s="42">
+        <v>7800</v>
+      </c>
+      <c r="I456">
+        <v>0</v>
+      </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
+      <c r="K456">
+        <v>0</v>
+      </c>
+      <c r="L456" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M456" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T456" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="457" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B457" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C457" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D457" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E457" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F457" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G457" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="H457" s="56">
+        <v>7800</v>
+      </c>
+      <c r="I457">
+        <v>0</v>
+      </c>
+      <c r="J457">
+        <v>0</v>
+      </c>
+      <c r="K457">
+        <v>0</v>
+      </c>
+      <c r="L457" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M457" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="458" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B458" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C458" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D458" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E458" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F458" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G458" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="H458" s="42">
+        <v>7800</v>
+      </c>
+      <c r="I458">
+        <v>0</v>
+      </c>
+      <c r="J458">
+        <v>0</v>
+      </c>
+      <c r="K458">
+        <v>0</v>
+      </c>
+      <c r="L458" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M458" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="459" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B459" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C459" s="52" t="s">
+        <v>902</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E459" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F459" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G459" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="H459" s="56">
+        <v>7800</v>
+      </c>
+      <c r="I459">
+        <v>0</v>
+      </c>
+      <c r="J459">
+        <v>0</v>
+      </c>
+      <c r="K459">
+        <v>0</v>
+      </c>
+      <c r="L459" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M459" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="460" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B460" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C460" s="52" t="s">
+        <v>901</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E460" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F460" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G460" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="H460" s="42">
+        <v>7800</v>
+      </c>
+      <c r="I460">
+        <v>0</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="K460">
+        <v>0</v>
+      </c>
+      <c r="L460" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M460" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="461" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B461" s="24" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C461" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="D461" s="24" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E461" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F461" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G461" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="H461" s="24">
+        <v>7800</v>
+      </c>
+      <c r="I461" s="24">
+        <v>0</v>
+      </c>
+      <c r="J461" s="24">
+        <v>0</v>
+      </c>
+      <c r="K461" s="24">
+        <v>0</v>
+      </c>
+      <c r="L461" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M461" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N461" s="28"/>
+      <c r="O461" s="25"/>
+      <c r="Q461" s="25"/>
+      <c r="R461" s="25"/>
+    </row>
+    <row r="462" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B462" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C462" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E462" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F462" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G462" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="H462" s="56">
+        <v>8000</v>
+      </c>
+      <c r="I462" s="56">
+        <v>0</v>
+      </c>
+      <c r="J462" s="56">
+        <v>0</v>
+      </c>
+      <c r="K462" s="56">
+        <v>0</v>
+      </c>
+      <c r="L462" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M462" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="463" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B463" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C463" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E463" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F463" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G463" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="H463" s="56">
+        <v>8000</v>
+      </c>
+      <c r="I463" s="56">
+        <v>0</v>
+      </c>
+      <c r="J463" s="56">
+        <v>0</v>
+      </c>
+      <c r="K463" s="56">
+        <v>0</v>
+      </c>
+      <c r="L463" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M463" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="S463" t="s">
+        <v>1064</v>
+      </c>
+      <c r="T463" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="464" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B464" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C464" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E464" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F464" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G464" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="H464" s="56">
+        <v>8000</v>
+      </c>
+      <c r="I464" s="56">
+        <v>0</v>
+      </c>
+      <c r="J464" s="56">
+        <v>0</v>
+      </c>
+      <c r="K464" s="56">
+        <v>0</v>
+      </c>
+      <c r="L464" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M464" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="465" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B465" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C465" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E465" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F465" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G465" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="H465" s="56">
+        <v>8000</v>
+      </c>
+      <c r="I465" s="56">
+        <v>0</v>
+      </c>
+      <c r="J465" s="56">
+        <v>0</v>
+      </c>
+      <c r="K465" s="56">
+        <v>0</v>
+      </c>
+      <c r="L465" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M465" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="466" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B466" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C466" s="52" t="s">
+        <v>902</v>
+      </c>
+      <c r="D466" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E466" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F466" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G466" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="H466" s="56">
+        <v>8000</v>
+      </c>
+      <c r="I466" s="56">
+        <v>0</v>
+      </c>
+      <c r="J466" s="56">
+        <v>0</v>
+      </c>
+      <c r="K466" s="56">
+        <v>0</v>
+      </c>
+      <c r="L466" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M466" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="467" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B467" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C467" s="52" t="s">
+        <v>901</v>
+      </c>
+      <c r="D467" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E467" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F467" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G467" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="H467" s="56">
+        <v>8000</v>
+      </c>
+      <c r="I467" s="56">
+        <v>0</v>
+      </c>
+      <c r="J467" s="56">
+        <v>0</v>
+      </c>
+      <c r="K467" s="56">
+        <v>0</v>
+      </c>
+      <c r="L467" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M467" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="468" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B468" s="24" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C468" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="D468" s="24" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E468" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F468" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G468" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="H468" s="24">
+        <v>8000</v>
+      </c>
+      <c r="I468" s="24">
+        <v>0</v>
+      </c>
+      <c r="J468" s="24">
+        <v>0</v>
+      </c>
+      <c r="K468" s="24">
+        <v>0</v>
+      </c>
+      <c r="L468" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M468" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N468" s="28"/>
+      <c r="O468" s="25"/>
+      <c r="Q468" s="25"/>
+      <c r="R468" s="25"/>
+    </row>
+    <row r="469" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B469" s="56" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C469" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E469" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F469" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G469" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="H469" s="56">
+        <v>8000</v>
+      </c>
+      <c r="I469" s="56">
+        <v>0</v>
+      </c>
+      <c r="J469" s="56">
+        <v>0</v>
+      </c>
+      <c r="K469" s="56">
+        <v>0</v>
+      </c>
+      <c r="L469" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M469" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="S469" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="470" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B470" s="56" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C470" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E470" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F470" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G470" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="H470" s="56">
+        <v>8000</v>
+      </c>
+      <c r="I470" s="56">
+        <v>0</v>
+      </c>
+      <c r="J470" s="56">
+        <v>0</v>
+      </c>
+      <c r="K470" s="56">
+        <v>0</v>
+      </c>
+      <c r="L470" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M470" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="T470" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="471" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B471" s="56" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C471" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E471" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F471" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G471" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="H471" s="56">
+        <v>8000</v>
+      </c>
+      <c r="I471" s="56">
+        <v>0</v>
+      </c>
+      <c r="J471" s="56">
+        <v>0</v>
+      </c>
+      <c r="K471" s="56">
+        <v>0</v>
+      </c>
+      <c r="L471" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M471" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="472" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B472" s="56" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C472" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E472" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F472" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G472" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="H472" s="56">
+        <v>8000</v>
+      </c>
+      <c r="I472" s="56">
+        <v>0</v>
+      </c>
+      <c r="J472" s="56">
+        <v>0</v>
+      </c>
+      <c r="K472" s="56">
+        <v>0</v>
+      </c>
+      <c r="L472" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M472" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="473" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B473" s="56" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C473" s="52" t="s">
+        <v>902</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E473" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F473" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G473" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="H473" s="56">
+        <v>8000</v>
+      </c>
+      <c r="I473" s="56">
+        <v>0</v>
+      </c>
+      <c r="J473" s="56">
+        <v>0</v>
+      </c>
+      <c r="K473" s="56">
+        <v>0</v>
+      </c>
+      <c r="L473" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M473" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="474" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B474" s="56" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C474" s="52" t="s">
+        <v>901</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E474" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F474" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G474" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="H474" s="56">
+        <v>8000</v>
+      </c>
+      <c r="I474" s="56">
+        <v>0</v>
+      </c>
+      <c r="J474" s="56">
+        <v>0</v>
+      </c>
+      <c r="K474" s="56">
+        <v>0</v>
+      </c>
+      <c r="L474" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M474" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="475" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B475" s="24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C475" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="D475" s="24" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E475" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F475" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G475" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="H475" s="24">
+        <v>8000</v>
+      </c>
+      <c r="I475" s="24">
+        <v>0</v>
+      </c>
+      <c r="J475" s="24">
+        <v>0</v>
+      </c>
+      <c r="K475" s="24">
+        <v>0</v>
+      </c>
+      <c r="L475" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M475" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N475" s="28"/>
+      <c r="O475" s="25"/>
+      <c r="Q475" s="25"/>
+      <c r="R475" s="25"/>
+    </row>
+    <row r="476" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B476" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C476" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E476" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F476" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G476" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="H476" s="56">
+        <v>8100</v>
+      </c>
+      <c r="I476" s="56">
+        <v>0</v>
+      </c>
+      <c r="J476" s="56">
+        <v>0</v>
+      </c>
+      <c r="K476" s="56">
+        <v>0</v>
+      </c>
+      <c r="L476" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M476" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="477" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B477" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C477" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E477" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F477" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G477" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="H477" s="56">
+        <v>8100</v>
+      </c>
+      <c r="I477" s="56">
+        <v>0</v>
+      </c>
+      <c r="J477" s="56">
+        <v>0</v>
+      </c>
+      <c r="K477" s="56">
+        <v>0</v>
+      </c>
+      <c r="L477" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M477" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="T477" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="478" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B478" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C478" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E478" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F478" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G478" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="H478" s="56">
+        <v>8100</v>
+      </c>
+      <c r="I478" s="56">
+        <v>0</v>
+      </c>
+      <c r="J478" s="56">
+        <v>0</v>
+      </c>
+      <c r="K478" s="56">
+        <v>0</v>
+      </c>
+      <c r="L478" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M478" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="479" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B479" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C479" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E479" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F479" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G479" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="H479" s="56">
+        <v>8100</v>
+      </c>
+      <c r="I479" s="56">
+        <v>0</v>
+      </c>
+      <c r="J479" s="56">
+        <v>0</v>
+      </c>
+      <c r="K479" s="56">
+        <v>0</v>
+      </c>
+      <c r="L479" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M479" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="480" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B480" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C480" s="52" t="s">
+        <v>902</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E480" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F480" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G480" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="H480" s="56">
+        <v>8100</v>
+      </c>
+      <c r="I480" s="56">
+        <v>0</v>
+      </c>
+      <c r="J480" s="56">
+        <v>0</v>
+      </c>
+      <c r="K480" s="56">
+        <v>0</v>
+      </c>
+      <c r="L480" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M480" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="481" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B481" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C481" s="52" t="s">
+        <v>901</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E481" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F481" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G481" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="H481" s="56">
+        <v>8100</v>
+      </c>
+      <c r="I481" s="56">
+        <v>0</v>
+      </c>
+      <c r="J481" s="56">
+        <v>0</v>
+      </c>
+      <c r="K481" s="56">
+        <v>0</v>
+      </c>
+      <c r="L481" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M481" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="482" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B482" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C482" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="D482" s="24" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E482" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F482" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G482" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H482" s="24">
+        <v>8100</v>
+      </c>
+      <c r="I482" s="24">
+        <v>0</v>
+      </c>
+      <c r="J482" s="24">
+        <v>0</v>
+      </c>
+      <c r="K482" s="24">
+        <v>0</v>
+      </c>
+      <c r="L482" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M482" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N482" s="28"/>
+      <c r="O482" s="25"/>
+      <c r="Q482" s="25"/>
+      <c r="R482" s="25"/>
+    </row>
+    <row r="483" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B483" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C483" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E483" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F483" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G483" s="52" t="s">
+        <v>865</v>
+      </c>
+      <c r="H483" s="56">
+        <v>8200</v>
+      </c>
+      <c r="I483" s="56">
+        <v>0</v>
+      </c>
+      <c r="J483" s="56">
+        <v>0</v>
+      </c>
+      <c r="K483" s="56">
+        <v>0</v>
+      </c>
+      <c r="L483" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M483" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="484" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B484" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C484" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E484" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F484" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G484" s="52" t="s">
+        <v>865</v>
+      </c>
+      <c r="H484" s="56">
+        <v>8200</v>
+      </c>
+      <c r="I484" s="56">
+        <v>0</v>
+      </c>
+      <c r="J484" s="56">
+        <v>0</v>
+      </c>
+      <c r="K484" s="56">
+        <v>0</v>
+      </c>
+      <c r="L484" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M484" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="T484" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="485" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B485" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C485" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D485" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E485" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F485" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G485" s="52" t="s">
+        <v>864</v>
+      </c>
+      <c r="H485" s="56">
+        <v>8200</v>
+      </c>
+      <c r="I485" s="56">
+        <v>0</v>
+      </c>
+      <c r="J485" s="56">
+        <v>0</v>
+      </c>
+      <c r="K485" s="56">
+        <v>0</v>
+      </c>
+      <c r="L485" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M485" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="486" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B486" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C486" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E486" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F486" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G486" s="52" t="s">
+        <v>864</v>
+      </c>
+      <c r="H486" s="56">
+        <v>8200</v>
+      </c>
+      <c r="I486" s="56">
+        <v>0</v>
+      </c>
+      <c r="J486" s="56">
+        <v>0</v>
+      </c>
+      <c r="K486" s="56">
+        <v>0</v>
+      </c>
+      <c r="L486" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M486" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="487" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B487" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C487" s="52" t="s">
+        <v>902</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E487" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F487" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G487" s="52" t="s">
+        <v>864</v>
+      </c>
+      <c r="H487" s="56">
+        <v>8200</v>
+      </c>
+      <c r="I487" s="56">
+        <v>0</v>
+      </c>
+      <c r="J487" s="56">
+        <v>0</v>
+      </c>
+      <c r="K487" s="56">
+        <v>0</v>
+      </c>
+      <c r="L487" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M487" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="488" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B488" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C488" s="52" t="s">
+        <v>901</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E488" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F488" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G488" s="52" t="s">
+        <v>864</v>
+      </c>
+      <c r="H488" s="56">
+        <v>8200</v>
+      </c>
+      <c r="I488" s="56">
+        <v>0</v>
+      </c>
+      <c r="J488" s="56">
+        <v>0</v>
+      </c>
+      <c r="K488" s="56">
+        <v>0</v>
+      </c>
+      <c r="L488" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M488" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="489" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B489" s="24" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C489" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="D489" s="24" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E489" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F489" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G489" s="27" t="s">
+        <v>864</v>
+      </c>
+      <c r="H489" s="24">
+        <v>8200</v>
+      </c>
+      <c r="I489" s="24">
+        <v>0</v>
+      </c>
+      <c r="J489" s="24">
+        <v>0</v>
+      </c>
+      <c r="K489" s="24">
+        <v>0</v>
+      </c>
+      <c r="L489" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M489" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N489" s="28"/>
+      <c r="O489" s="25"/>
+      <c r="Q489" s="25"/>
+      <c r="R489" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
